--- a/models/pancreas/source/pancreas.xlsx
+++ b/models/pancreas/source/pancreas.xlsx
@@ -360,10 +360,10 @@
     <t>lyph-coeliac-trunk</t>
   </si>
   <si>
-    <t>Coeliac trunk</t>
-  </si>
-  <si>
-    <t>ILX:0744971</t>
+    <t>Celiac trunk</t>
+  </si>
+  <si>
+    <t>UBERON:0006637</t>
   </si>
   <si>
     <t>mat-blood, mat-wall-of-vessel</t>
@@ -474,7 +474,7 @@
     <t>T5 ventral root</t>
   </si>
   <si>
-    <t>EMAPA:25304</t>
+    <t>ILX:0790146</t>
   </si>
   <si>
     <t>lyph-XX-ventral-root</t>
@@ -489,7 +489,7 @@
     <t>T6 ventral root</t>
   </si>
   <si>
-    <t>EMAPA:25306</t>
+    <t>ILX:0791062</t>
   </si>
   <si>
     <t>lyph-T7-ventral-root</t>
@@ -498,7 +498,7 @@
     <t>T7 ventral root</t>
   </si>
   <si>
-    <t>EMAPA:25308</t>
+    <t>ILX:0789966</t>
   </si>
   <si>
     <t>lyph-T8-ventral-root</t>
@@ -507,7 +507,7 @@
     <t>T8 ventral root</t>
   </si>
   <si>
-    <t>EMAPA:25310</t>
+    <t>ILX:0788026</t>
   </si>
   <si>
     <t>lyph-T9-ventral-root</t>
@@ -516,7 +516,7 @@
     <t>T9 ventral root</t>
   </si>
   <si>
-    <t>EMAPA:25312</t>
+    <t>ILX:0791932</t>
   </si>
   <si>
     <t>lyph-paravertebral-ganglia</t>
@@ -534,7 +534,7 @@
     <t>T5 sympathetic chain ganglion</t>
   </si>
   <si>
-    <t>FMA:6478</t>
+    <t>ILX:0786141</t>
   </si>
   <si>
     <t>lyph-T6-sympathetic-chain-ganglion</t>
@@ -543,7 +543,7 @@
     <t>T6 sympathetic chain ganglion</t>
   </si>
   <si>
-    <t>FMA:6479</t>
+    <t>ILX:0789947</t>
   </si>
   <si>
     <t>lyph-T7-sympathetic-chain-ganglion</t>
@@ -552,7 +552,7 @@
     <t>T7 sympathetic chain ganglion</t>
   </si>
   <si>
-    <t>FMA:6480</t>
+    <t>ILX:0790482</t>
   </si>
   <si>
     <t>lyph-T8-sympathetic-chain-ganglion</t>
@@ -561,7 +561,7 @@
     <t>T8 sympathetic chain ganglion</t>
   </si>
   <si>
-    <t>FMA:6481</t>
+    <t>ILX:0784721</t>
   </si>
   <si>
     <t>lyph-T9-sympathetic-chain-ganglion</t>
@@ -570,7 +570,7 @@
     <t>T9 sympathetic chain ganglion</t>
   </si>
   <si>
-    <t>FMA:6482</t>
+    <t>ILX:0784378</t>
   </si>
   <si>
     <t>Segment of neuron</t>
@@ -2577,14 +2577,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -2617,6 +2616,11 @@
     </font>
     <font>
       <sz val="9.0"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -2638,11 +2642,6 @@
     </font>
     <font>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2866,7 +2865,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2950,9 +2949,6 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3036,24 +3032,21 @@
     <xf borderId="0" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -3069,7 +3062,7 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -3324,7 +3317,7 @@
     <xf borderId="1" fillId="21" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="21" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="21" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="21" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3375,7 +3368,7 @@
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3384,7 +3377,7 @@
     <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3399,15 +3392,15 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -3441,7 +3434,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3459,7 +3452,7 @@
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3472,7 +3465,7 @@
     <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3499,7 +3492,7 @@
     <xf borderId="0" fillId="16" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3511,7 +3504,7 @@
     <xf borderId="0" fillId="25" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="25" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="25" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="25" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3539,7 +3532,7 @@
     <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="25" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="25" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3548,7 +3541,7 @@
     <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3564,7 +3557,7 @@
     <xf borderId="0" fillId="26" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="26" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="26" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="26" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3583,7 +3576,7 @@
     <xf borderId="0" fillId="26" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3599,7 +3592,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3966,19 +3959,19 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="254" t="s">
+      <c r="C1" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="254" t="s">
+      <c r="D1" s="252" t="s">
         <v>575</v>
       </c>
-      <c r="E1" s="254" t="s">
+      <c r="E1" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="254" t="s">
+      <c r="F1" s="252" t="s">
         <v>783</v>
       </c>
     </row>
@@ -3993,7 +3986,7 @@
       <c r="D2" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="E2" s="255" t="s">
+      <c r="E2" s="253" t="s">
         <v>787</v>
       </c>
     </row>
@@ -4005,10 +3998,10 @@
         <v>789</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="231" t="s">
+      <c r="D3" s="229" t="s">
         <v>790</v>
       </c>
-      <c r="E3" s="255" t="s">
+      <c r="E3" s="253" t="s">
         <v>787</v>
       </c>
     </row>
@@ -4016,8 +4009,8 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="255"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="253"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -4040,7 +4033,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="254" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4051,7 +4044,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="257"/>
+      <c r="A2" s="255"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4080,82 +4073,82 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="256" t="s">
         <v>793</v>
       </c>
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="257" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="256" t="s">
         <v>795</v>
       </c>
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="258" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="256" t="s">
         <v>797</v>
       </c>
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="259" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="256" t="s">
         <v>799</v>
       </c>
-      <c r="B5" s="261" t="s">
+      <c r="B5" s="259" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="258" t="s">
+      <c r="A6" s="256" t="s">
         <v>801</v>
       </c>
-      <c r="B6" s="261" t="s">
+      <c r="B6" s="259" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="258" t="s">
+      <c r="A7" s="256" t="s">
         <v>803</v>
       </c>
-      <c r="B7" s="261" t="s">
+      <c r="B7" s="259" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="258" t="s">
+      <c r="A8" s="256" t="s">
         <v>805</v>
       </c>
-      <c r="B8" s="261" t="s">
+      <c r="B8" s="259" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="258" t="s">
+      <c r="A9" s="256" t="s">
         <v>807</v>
       </c>
-      <c r="B9" s="261" t="s">
+      <c r="B9" s="259" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="258" t="s">
+      <c r="A10" s="256" t="s">
         <v>809</v>
       </c>
-      <c r="B10" s="261" t="s">
+      <c r="B10" s="259" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="258" t="s">
+      <c r="A11" s="256" t="s">
         <v>811</v>
       </c>
-      <c r="B11" s="261" t="s">
+      <c r="B11" s="259" t="s">
         <v>812</v>
       </c>
     </row>
@@ -4163,7 +4156,7 @@
       <c r="A12" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B12" s="262" t="s">
+      <c r="B12" s="260" t="s">
         <v>814</v>
       </c>
     </row>
@@ -4171,7 +4164,7 @@
       <c r="A13" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="261" t="s">
         <v>816</v>
       </c>
     </row>
@@ -4210,7 +4203,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="35.63"/>
-    <col customWidth="1" min="2" max="2" width="16.5"/>
+    <col customWidth="1" min="2" max="2" width="21.88"/>
     <col customWidth="1" min="3" max="3" width="28.38"/>
     <col customWidth="1" min="4" max="4" width="35.5"/>
     <col customWidth="1" min="5" max="5" width="11.63"/>
@@ -4629,7 +4622,7 @@
       <c r="B8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="18"/>
@@ -4638,11 +4631,11 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="29"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -4677,7 +4670,7 @@
       <c r="B9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="18"/>
@@ -4686,11 +4679,11 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="29"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -4725,7 +4718,7 @@
       <c r="B10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="18"/>
@@ -4734,11 +4727,11 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="29"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
@@ -4773,7 +4766,7 @@
       <c r="B11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="18"/>
@@ -4782,11 +4775,11 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="29"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
@@ -4821,7 +4814,7 @@
       <c r="B12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="18"/>
@@ -4830,11 +4823,11 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="29"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
@@ -4863,249 +4856,249 @@
       <c r="AL12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="37" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="41" t="s">
+      <c r="N14" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="32" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="32" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="41" t="s">
+      <c r="N17" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -5125,11 +5118,11 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="44"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="44"/>
+      <c r="Q18" s="43"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
@@ -5153,727 +5146,727 @@
       <c r="AL18" s="18"/>
     </row>
     <row r="19">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="45" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="41" t="s">
+      <c r="N19" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
     </row>
     <row r="20">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
     </row>
     <row r="21">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
     </row>
     <row r="22">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
     </row>
     <row r="23">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="47" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
     </row>
     <row r="24">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="47" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
     </row>
     <row r="25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="48" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="47" t="s">
+      <c r="J25" s="31"/>
+      <c r="K25" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
     </row>
     <row r="26">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
     </row>
     <row r="27">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="47" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="35"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
     </row>
     <row r="28">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="47" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="35"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
     </row>
     <row r="29">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="54" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="55" t="s">
+      <c r="J29" s="48"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="N29" s="56" t="s">
+      <c r="N29" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="46"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
     </row>
     <row r="30">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="54" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="45" t="s">
+      <c r="J30" s="48"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="N30" s="56" t="s">
+      <c r="N30" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="46"/>
-      <c r="AL30" s="46"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
     </row>
     <row r="31">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
     </row>
     <row r="32">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="60" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="42" t="s">
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="42"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
     </row>
     <row r="33">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="60" t="s">
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="41"/>
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
@@ -5882,24 +5875,24 @@
       <c r="B34" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="60" t="s">
         <v>135</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="63"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="20"/>
       <c r="J34" s="23"/>
-      <c r="K34" s="64" t="s">
+      <c r="K34" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="L34" s="65" t="s">
+      <c r="L34" s="63" t="s">
         <v>137</v>
       </c>
       <c r="M34" s="20"/>
-      <c r="N34" s="66"/>
+      <c r="N34" s="64"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="22"/>
@@ -5932,24 +5925,24 @@
       <c r="B35" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="60" t="s">
         <v>140</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="63"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="20"/>
       <c r="J35" s="23"/>
-      <c r="K35" s="64" t="s">
+      <c r="K35" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="L35" s="65" t="s">
+      <c r="L35" s="63" t="s">
         <v>137</v>
       </c>
       <c r="M35" s="20"/>
-      <c r="N35" s="66"/>
+      <c r="N35" s="64"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="22"/>
@@ -5982,24 +5975,24 @@
       <c r="B36" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="60" t="s">
         <v>143</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="63"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="20"/>
       <c r="J36" s="23"/>
-      <c r="K36" s="64" t="s">
+      <c r="K36" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="L36" s="65" t="s">
+      <c r="L36" s="63" t="s">
         <v>137</v>
       </c>
       <c r="M36" s="20"/>
-      <c r="N36" s="66"/>
+      <c r="N36" s="64"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="22"/>
@@ -6032,24 +6025,24 @@
       <c r="B37" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="60" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="63"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="20"/>
       <c r="J37" s="23"/>
-      <c r="K37" s="64" t="s">
+      <c r="K37" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="L37" s="65" t="s">
+      <c r="L37" s="63" t="s">
         <v>137</v>
       </c>
       <c r="M37" s="20"/>
-      <c r="N37" s="66"/>
+      <c r="N37" s="64"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="22"/>
@@ -6082,24 +6075,24 @@
       <c r="B38" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="60" t="s">
         <v>149</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="63"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="20"/>
       <c r="J38" s="23"/>
-      <c r="K38" s="64" t="s">
+      <c r="K38" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="L38" s="65" t="s">
+      <c r="L38" s="63" t="s">
         <v>137</v>
       </c>
       <c r="M38" s="20"/>
-      <c r="N38" s="66"/>
+      <c r="N38" s="64"/>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="22"/>
@@ -6136,7 +6129,7 @@
         <v>152</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="67" t="b">
+      <c r="E39" s="65" t="b">
         <v>1</v>
       </c>
       <c r="F39" s="18"/>
@@ -6144,12 +6137,12 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="23"/>
-      <c r="K39" s="44"/>
+      <c r="K39" s="43"/>
       <c r="L39" s="24"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
     </row>
@@ -6160,7 +6153,7 @@
       <c r="B40" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="66" t="s">
         <v>155</v>
       </c>
       <c r="D40" s="19"/>
@@ -6169,7 +6162,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="20"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="64" t="s">
+      <c r="J40" s="62" t="s">
         <v>150</v>
       </c>
       <c r="K40" s="18"/>
@@ -6208,7 +6201,7 @@
       <c r="B41" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="66" t="s">
         <v>158</v>
       </c>
       <c r="D41" s="19"/>
@@ -6217,7 +6210,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="20"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="64" t="s">
+      <c r="J41" s="62" t="s">
         <v>150</v>
       </c>
       <c r="K41" s="18"/>
@@ -6256,7 +6249,7 @@
       <c r="B42" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="66" t="s">
         <v>161</v>
       </c>
       <c r="D42" s="19"/>
@@ -6265,7 +6258,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="20"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="64" t="s">
+      <c r="J42" s="62" t="s">
         <v>150</v>
       </c>
       <c r="K42" s="18"/>
@@ -6304,7 +6297,7 @@
       <c r="B43" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="66" t="s">
         <v>164</v>
       </c>
       <c r="D43" s="19"/>
@@ -6313,7 +6306,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="20"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="64" t="s">
+      <c r="J43" s="62" t="s">
         <v>150</v>
       </c>
       <c r="K43" s="18"/>
@@ -6352,7 +6345,7 @@
       <c r="B44" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="66" t="s">
         <v>167</v>
       </c>
       <c r="D44" s="19"/>
@@ -6361,7 +6354,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="20"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="64" t="s">
+      <c r="J44" s="62" t="s">
         <v>150</v>
       </c>
       <c r="K44" s="18"/>
@@ -6394,999 +6387,999 @@
       <c r="AL44" s="18"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="72" t="b">
+      <c r="D45" s="69"/>
+      <c r="E45" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="74" t="s">
+      <c r="F45" s="71"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="J45" s="73"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
-      <c r="AG45" s="35"/>
-      <c r="AH45" s="35"/>
-      <c r="AI45" s="35"/>
-      <c r="AJ45" s="35"/>
-      <c r="AK45" s="35"/>
-      <c r="AL45" s="35"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="34"/>
+      <c r="AH45" s="34"/>
+      <c r="AI45" s="34"/>
+      <c r="AJ45" s="34"/>
+      <c r="AK45" s="34"/>
+      <c r="AL45" s="34"/>
     </row>
     <row r="46">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="74" t="s">
         <v>172</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="76" t="b">
+      <c r="D46" s="75"/>
+      <c r="E46" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="F46" s="78" t="s">
+      <c r="F46" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="81" t="s">
+      <c r="H46" s="77"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="L46" s="78"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="79"/>
-      <c r="S46" s="79"/>
-      <c r="T46" s="79"/>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="79"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="79"/>
-      <c r="AC46" s="79"/>
-      <c r="AD46" s="79"/>
-      <c r="AE46" s="79"/>
-      <c r="AF46" s="79"/>
-      <c r="AG46" s="79"/>
-      <c r="AH46" s="79"/>
-      <c r="AI46" s="79"/>
-      <c r="AJ46" s="79"/>
-      <c r="AK46" s="79"/>
-      <c r="AL46" s="79"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="77"/>
+      <c r="W46" s="77"/>
+      <c r="X46" s="77"/>
+      <c r="Y46" s="77"/>
+      <c r="Z46" s="77"/>
+      <c r="AA46" s="77"/>
+      <c r="AB46" s="77"/>
+      <c r="AC46" s="77"/>
+      <c r="AD46" s="77"/>
+      <c r="AE46" s="77"/>
+      <c r="AF46" s="77"/>
+      <c r="AG46" s="77"/>
+      <c r="AH46" s="77"/>
+      <c r="AI46" s="77"/>
+      <c r="AJ46" s="77"/>
+      <c r="AK46" s="77"/>
+      <c r="AL46" s="77"/>
     </row>
     <row r="47">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="74" t="s">
         <v>177</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="76" t="b">
+      <c r="D47" s="75"/>
+      <c r="E47" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="H47" s="79"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="81" t="s">
+      <c r="H47" s="77"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="L47" s="78"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="79"/>
-      <c r="S47" s="79"/>
-      <c r="T47" s="79"/>
-      <c r="U47" s="79"/>
-      <c r="V47" s="79"/>
-      <c r="W47" s="79"/>
-      <c r="X47" s="79"/>
-      <c r="Y47" s="79"/>
-      <c r="Z47" s="79"/>
-      <c r="AA47" s="79"/>
-      <c r="AB47" s="79"/>
-      <c r="AC47" s="79"/>
-      <c r="AD47" s="79"/>
-      <c r="AE47" s="79"/>
-      <c r="AF47" s="79"/>
-      <c r="AG47" s="79"/>
-      <c r="AH47" s="79"/>
-      <c r="AI47" s="79"/>
-      <c r="AJ47" s="79"/>
-      <c r="AK47" s="79"/>
-      <c r="AL47" s="79"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="77"/>
+      <c r="V47" s="77"/>
+      <c r="W47" s="77"/>
+      <c r="X47" s="77"/>
+      <c r="Y47" s="77"/>
+      <c r="Z47" s="77"/>
+      <c r="AA47" s="77"/>
+      <c r="AB47" s="77"/>
+      <c r="AC47" s="77"/>
+      <c r="AD47" s="77"/>
+      <c r="AE47" s="77"/>
+      <c r="AF47" s="77"/>
+      <c r="AG47" s="77"/>
+      <c r="AH47" s="77"/>
+      <c r="AI47" s="77"/>
+      <c r="AJ47" s="77"/>
+      <c r="AK47" s="77"/>
+      <c r="AL47" s="77"/>
     </row>
     <row r="48">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="74" t="s">
         <v>179</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="77"/>
-      <c r="E48" s="76" t="b">
+      <c r="D48" s="75"/>
+      <c r="E48" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="F48" s="78" t="s">
+      <c r="F48" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="H48" s="79"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="81" t="s">
+      <c r="H48" s="77"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="L48" s="78"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="79"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
-      <c r="U48" s="79"/>
-      <c r="V48" s="79"/>
-      <c r="W48" s="79"/>
-      <c r="X48" s="79"/>
-      <c r="Y48" s="79"/>
-      <c r="Z48" s="79"/>
-      <c r="AA48" s="79"/>
-      <c r="AB48" s="79"/>
-      <c r="AC48" s="79"/>
-      <c r="AD48" s="79"/>
-      <c r="AE48" s="79"/>
-      <c r="AF48" s="79"/>
-      <c r="AG48" s="79"/>
-      <c r="AH48" s="79"/>
-      <c r="AI48" s="79"/>
-      <c r="AJ48" s="79"/>
-      <c r="AK48" s="79"/>
-      <c r="AL48" s="79"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="80"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
+      <c r="AB48" s="77"/>
+      <c r="AC48" s="77"/>
+      <c r="AD48" s="77"/>
+      <c r="AE48" s="77"/>
+      <c r="AF48" s="77"/>
+      <c r="AG48" s="77"/>
+      <c r="AH48" s="77"/>
+      <c r="AI48" s="77"/>
+      <c r="AJ48" s="77"/>
+      <c r="AK48" s="77"/>
+      <c r="AL48" s="77"/>
     </row>
     <row r="49">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="74" t="s">
         <v>182</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="76" t="b">
+      <c r="D49" s="75"/>
+      <c r="E49" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="F49" s="77" t="s">
+      <c r="F49" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="81" t="s">
+      <c r="H49" s="77"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="L49" s="78"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="79"/>
-      <c r="S49" s="79"/>
-      <c r="T49" s="79"/>
-      <c r="U49" s="79"/>
-      <c r="V49" s="79"/>
-      <c r="W49" s="79"/>
-      <c r="X49" s="79"/>
-      <c r="Y49" s="79"/>
-      <c r="Z49" s="79"/>
-      <c r="AA49" s="79"/>
-      <c r="AB49" s="79"/>
-      <c r="AC49" s="79"/>
-      <c r="AD49" s="79"/>
-      <c r="AE49" s="79"/>
-      <c r="AF49" s="79"/>
-      <c r="AG49" s="79"/>
-      <c r="AH49" s="79"/>
-      <c r="AI49" s="79"/>
-      <c r="AJ49" s="79"/>
-      <c r="AK49" s="79"/>
-      <c r="AL49" s="79"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+      <c r="Y49" s="77"/>
+      <c r="Z49" s="77"/>
+      <c r="AA49" s="77"/>
+      <c r="AB49" s="77"/>
+      <c r="AC49" s="77"/>
+      <c r="AD49" s="77"/>
+      <c r="AE49" s="77"/>
+      <c r="AF49" s="77"/>
+      <c r="AG49" s="77"/>
+      <c r="AH49" s="77"/>
+      <c r="AI49" s="77"/>
+      <c r="AJ49" s="77"/>
+      <c r="AK49" s="77"/>
+      <c r="AL49" s="77"/>
     </row>
     <row r="50">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="85" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="K50" s="86" t="s">
+      <c r="K50" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="L50" s="52"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="46" t="s">
+      <c r="L50" s="51"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
-      <c r="AC50" s="46"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="46"/>
-      <c r="AF50" s="46"/>
-      <c r="AG50" s="46"/>
-      <c r="AH50" s="46"/>
-      <c r="AI50" s="46"/>
-      <c r="AJ50" s="46"/>
-      <c r="AK50" s="46"/>
-      <c r="AL50" s="46"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="45"/>
+      <c r="AF50" s="45"/>
+      <c r="AG50" s="45"/>
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="45"/>
+      <c r="AK50" s="45"/>
+      <c r="AL50" s="45"/>
     </row>
     <row r="51">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="85" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="K51" s="86" t="s">
+      <c r="K51" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="L51" s="52"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="46"/>
-      <c r="AL51" s="46"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45"/>
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="45"/>
+      <c r="AF51" s="45"/>
+      <c r="AG51" s="45"/>
+      <c r="AH51" s="45"/>
+      <c r="AI51" s="45"/>
+      <c r="AJ51" s="45"/>
+      <c r="AK51" s="45"/>
+      <c r="AL51" s="45"/>
     </row>
     <row r="52">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="88" t="s">
+      <c r="B52" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="89"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="46" t="s">
+      <c r="D52" s="87"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46"/>
-      <c r="AC52" s="46"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="46"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-      <c r="AJ52" s="46"/>
-      <c r="AK52" s="46"/>
-      <c r="AL52" s="46"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
+      <c r="AD52" s="45"/>
+      <c r="AE52" s="45"/>
+      <c r="AF52" s="45"/>
+      <c r="AG52" s="45"/>
+      <c r="AH52" s="45"/>
+      <c r="AI52" s="45"/>
+      <c r="AJ52" s="45"/>
+      <c r="AK52" s="45"/>
+      <c r="AL52" s="45"/>
     </row>
     <row r="53">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="95" t="s">
+      <c r="C53" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="D53" s="89"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52"/>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="52"/>
-      <c r="AG53" s="52"/>
-      <c r="AH53" s="52"/>
-      <c r="AI53" s="52"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="52"/>
-      <c r="AL53" s="52"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="51"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+      <c r="AL53" s="51"/>
     </row>
     <row r="54">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="94" t="s">
+      <c r="B54" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="95" t="s">
+      <c r="C54" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="D54" s="89"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="46" t="s">
+      <c r="D54" s="87"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="52"/>
-      <c r="I54" s="96" t="s">
+      <c r="H54" s="51"/>
+      <c r="I54" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="J54" s="92"/>
-      <c r="K54" s="96" t="s">
+      <c r="J54" s="90"/>
+      <c r="K54" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="L54" s="52"/>
-      <c r="M54" s="97" t="s">
+      <c r="L54" s="51"/>
+      <c r="M54" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="N54" s="56" t="s">
+      <c r="N54" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
-      <c r="AD54" s="52"/>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="52"/>
-      <c r="AH54" s="52"/>
-      <c r="AI54" s="52"/>
-      <c r="AJ54" s="52"/>
-      <c r="AK54" s="52"/>
-      <c r="AL54" s="52"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="51"/>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="51"/>
+      <c r="AK54" s="51"/>
+      <c r="AL54" s="51"/>
     </row>
     <row r="55">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="93"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="46" t="s">
+      <c r="C55" s="91"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="96" t="s">
+      <c r="H55" s="51"/>
+      <c r="I55" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="J55" s="92"/>
-      <c r="K55" s="96" t="s">
+      <c r="J55" s="90"/>
+      <c r="K55" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="L55" s="52"/>
-      <c r="M55" s="97" t="s">
+      <c r="L55" s="51"/>
+      <c r="M55" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="N55" s="56" t="s">
+      <c r="N55" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52"/>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="52"/>
-      <c r="AG55" s="52"/>
-      <c r="AH55" s="52"/>
-      <c r="AI55" s="52"/>
-      <c r="AJ55" s="52"/>
-      <c r="AK55" s="52"/>
-      <c r="AL55" s="52"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="51"/>
+      <c r="AJ55" s="51"/>
+      <c r="AK55" s="51"/>
+      <c r="AL55" s="51"/>
     </row>
     <row r="56">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="99" t="s">
+      <c r="C56" s="78"/>
+      <c r="D56" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="E56" s="81" t="b">
+      <c r="E56" s="79" t="b">
         <v>1</v>
       </c>
-      <c r="F56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="80"/>
-      <c r="K56" s="100" t="s">
+      <c r="F56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="78"/>
+      <c r="K56" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="L56" s="79"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="82"/>
-      <c r="R56" s="79"/>
-      <c r="S56" s="79"/>
-      <c r="T56" s="79"/>
-      <c r="U56" s="79"/>
-      <c r="V56" s="79"/>
-      <c r="W56" s="79"/>
-      <c r="X56" s="79"/>
-      <c r="Y56" s="79"/>
-      <c r="Z56" s="79"/>
-      <c r="AA56" s="79"/>
-      <c r="AB56" s="79"/>
-      <c r="AC56" s="79"/>
-      <c r="AD56" s="79"/>
-      <c r="AE56" s="79"/>
-      <c r="AF56" s="79"/>
-      <c r="AG56" s="79"/>
-      <c r="AH56" s="79"/>
-      <c r="AI56" s="79"/>
-      <c r="AJ56" s="79"/>
-      <c r="AK56" s="79"/>
-      <c r="AL56" s="79"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="78"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="77"/>
+      <c r="AB56" s="77"/>
+      <c r="AC56" s="77"/>
+      <c r="AD56" s="77"/>
+      <c r="AE56" s="77"/>
+      <c r="AF56" s="77"/>
+      <c r="AG56" s="77"/>
+      <c r="AH56" s="77"/>
+      <c r="AI56" s="77"/>
+      <c r="AJ56" s="77"/>
+      <c r="AK56" s="77"/>
+      <c r="AL56" s="77"/>
     </row>
     <row r="57">
-      <c r="A57" s="98" t="s">
+      <c r="A57" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="81" t="b">
+      <c r="C57" s="78"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="79" t="b">
         <v>1</v>
       </c>
-      <c r="F57" s="101" t="s">
+      <c r="F57" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="79"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="79"/>
-      <c r="S57" s="79"/>
-      <c r="T57" s="79"/>
-      <c r="U57" s="79"/>
-      <c r="V57" s="79"/>
-      <c r="W57" s="79"/>
-      <c r="X57" s="79"/>
-      <c r="Y57" s="79"/>
-      <c r="Z57" s="79"/>
-      <c r="AA57" s="79"/>
-      <c r="AB57" s="79"/>
-      <c r="AC57" s="79"/>
-      <c r="AD57" s="79"/>
-      <c r="AE57" s="79"/>
-      <c r="AF57" s="79"/>
-      <c r="AG57" s="79"/>
-      <c r="AH57" s="79"/>
-      <c r="AI57" s="79"/>
-      <c r="AJ57" s="79"/>
-      <c r="AK57" s="79"/>
-      <c r="AL57" s="79"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
+      <c r="X57" s="77"/>
+      <c r="Y57" s="77"/>
+      <c r="Z57" s="77"/>
+      <c r="AA57" s="77"/>
+      <c r="AB57" s="77"/>
+      <c r="AC57" s="77"/>
+      <c r="AD57" s="77"/>
+      <c r="AE57" s="77"/>
+      <c r="AF57" s="77"/>
+      <c r="AG57" s="77"/>
+      <c r="AH57" s="77"/>
+      <c r="AI57" s="77"/>
+      <c r="AJ57" s="77"/>
+      <c r="AK57" s="77"/>
+      <c r="AL57" s="77"/>
     </row>
     <row r="58">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="103" t="s">
+      <c r="B58" s="101" t="s">
         <v>211</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="104"/>
+      <c r="E58" s="102"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="58"/>
-      <c r="S58" s="58"/>
-      <c r="T58" s="58"/>
-      <c r="U58" s="58"/>
-      <c r="V58" s="58"/>
-      <c r="W58" s="58"/>
-      <c r="X58" s="58"/>
-      <c r="Y58" s="58"/>
-      <c r="Z58" s="58"/>
-      <c r="AA58" s="58"/>
-      <c r="AB58" s="58"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="58"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="58"/>
-      <c r="AI58" s="58"/>
-      <c r="AJ58" s="58"/>
-      <c r="AK58" s="58"/>
-      <c r="AL58" s="58"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="56"/>
+      <c r="AC58" s="56"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="56"/>
+      <c r="AG58" s="56"/>
+      <c r="AH58" s="56"/>
+      <c r="AI58" s="56"/>
+      <c r="AJ58" s="56"/>
+      <c r="AK58" s="56"/>
+      <c r="AL58" s="56"/>
     </row>
     <row r="59">
-      <c r="A59" s="107"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="110"/>
-      <c r="M59" s="109"/>
-      <c r="N59" s="115"/>
-      <c r="O59" s="110"/>
-      <c r="P59" s="110"/>
-      <c r="Q59" s="110"/>
-      <c r="R59" s="110"/>
-      <c r="S59" s="110"/>
-      <c r="T59" s="110"/>
-      <c r="U59" s="110"/>
-      <c r="V59" s="110"/>
-      <c r="W59" s="110"/>
-      <c r="X59" s="110"/>
-      <c r="Y59" s="110"/>
-      <c r="Z59" s="110"/>
-      <c r="AA59" s="110"/>
-      <c r="AB59" s="110"/>
-      <c r="AC59" s="110"/>
-      <c r="AD59" s="110"/>
-      <c r="AE59" s="110"/>
-      <c r="AF59" s="110"/>
-      <c r="AG59" s="110"/>
-      <c r="AH59" s="110"/>
-      <c r="AI59" s="110"/>
-      <c r="AJ59" s="110"/>
-      <c r="AK59" s="110"/>
-      <c r="AL59" s="110"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="111"/>
+      <c r="K59" s="112"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="107"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="108"/>
+      <c r="R59" s="108"/>
+      <c r="S59" s="108"/>
+      <c r="T59" s="108"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="108"/>
+      <c r="W59" s="108"/>
+      <c r="X59" s="108"/>
+      <c r="Y59" s="108"/>
+      <c r="Z59" s="108"/>
+      <c r="AA59" s="108"/>
+      <c r="AB59" s="108"/>
+      <c r="AC59" s="108"/>
+      <c r="AD59" s="108"/>
+      <c r="AE59" s="108"/>
+      <c r="AF59" s="108"/>
+      <c r="AG59" s="108"/>
+      <c r="AH59" s="108"/>
+      <c r="AI59" s="108"/>
+      <c r="AJ59" s="108"/>
+      <c r="AK59" s="108"/>
+      <c r="AL59" s="108"/>
     </row>
     <row r="60">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="117" t="s">
+      <c r="C60" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="110"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="46" t="s">
+      <c r="D60" s="108"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G60" s="110"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="96" t="s">
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="J60" s="113"/>
-      <c r="K60" s="96" t="s">
+      <c r="J60" s="111"/>
+      <c r="K60" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="L60" s="110"/>
-      <c r="M60" s="109"/>
-      <c r="N60" s="115"/>
-      <c r="O60" s="110"/>
-      <c r="P60" s="110"/>
-      <c r="Q60" s="110"/>
-      <c r="R60" s="110"/>
-      <c r="S60" s="110"/>
-      <c r="T60" s="110"/>
-      <c r="U60" s="110"/>
-      <c r="V60" s="110"/>
-      <c r="W60" s="110"/>
-      <c r="X60" s="110"/>
-      <c r="Y60" s="110"/>
-      <c r="Z60" s="110"/>
-      <c r="AA60" s="110"/>
-      <c r="AB60" s="110"/>
-      <c r="AC60" s="110"/>
-      <c r="AD60" s="110"/>
-      <c r="AE60" s="110"/>
-      <c r="AF60" s="110"/>
-      <c r="AG60" s="110"/>
-      <c r="AH60" s="110"/>
-      <c r="AI60" s="110"/>
-      <c r="AJ60" s="110"/>
-      <c r="AK60" s="110"/>
-      <c r="AL60" s="110"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="113"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="108"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="108"/>
+      <c r="W60" s="108"/>
+      <c r="X60" s="108"/>
+      <c r="Y60" s="108"/>
+      <c r="Z60" s="108"/>
+      <c r="AA60" s="108"/>
+      <c r="AB60" s="108"/>
+      <c r="AC60" s="108"/>
+      <c r="AD60" s="108"/>
+      <c r="AE60" s="108"/>
+      <c r="AF60" s="108"/>
+      <c r="AG60" s="108"/>
+      <c r="AH60" s="108"/>
+      <c r="AI60" s="108"/>
+      <c r="AJ60" s="108"/>
+      <c r="AK60" s="108"/>
+      <c r="AL60" s="108"/>
     </row>
     <row r="61">
-      <c r="A61" s="116" t="s">
+      <c r="A61" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="C61" s="109" t="s">
+      <c r="C61" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="D61" s="110"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="46" t="s">
+      <c r="D61" s="108"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="110"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="96" t="s">
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="J61" s="113"/>
-      <c r="K61" s="96" t="s">
+      <c r="J61" s="111"/>
+      <c r="K61" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="L61" s="110"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="115"/>
-      <c r="O61" s="110"/>
-      <c r="P61" s="110"/>
-      <c r="Q61" s="110"/>
-      <c r="R61" s="110"/>
-      <c r="S61" s="110"/>
-      <c r="T61" s="110"/>
-      <c r="U61" s="110"/>
-      <c r="V61" s="110"/>
-      <c r="W61" s="110"/>
-      <c r="X61" s="110"/>
-      <c r="Y61" s="110"/>
-      <c r="Z61" s="110"/>
-      <c r="AA61" s="110"/>
-      <c r="AB61" s="110"/>
-      <c r="AC61" s="110"/>
-      <c r="AD61" s="110"/>
-      <c r="AE61" s="110"/>
-      <c r="AF61" s="110"/>
-      <c r="AG61" s="110"/>
-      <c r="AH61" s="110"/>
-      <c r="AI61" s="110"/>
-      <c r="AJ61" s="110"/>
-      <c r="AK61" s="110"/>
-      <c r="AL61" s="110"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="113"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
+      <c r="S61" s="108"/>
+      <c r="T61" s="108"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
+      <c r="Y61" s="108"/>
+      <c r="Z61" s="108"/>
+      <c r="AA61" s="108"/>
+      <c r="AB61" s="108"/>
+      <c r="AC61" s="108"/>
+      <c r="AD61" s="108"/>
+      <c r="AE61" s="108"/>
+      <c r="AF61" s="108"/>
+      <c r="AG61" s="108"/>
+      <c r="AH61" s="108"/>
+      <c r="AI61" s="108"/>
+      <c r="AJ61" s="108"/>
+      <c r="AK61" s="108"/>
+      <c r="AL61" s="108"/>
     </row>
     <row r="62">
-      <c r="A62" s="118" t="s">
+      <c r="A62" s="116" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="119" t="s">
+      <c r="C62" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="46" t="s">
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="54" t="s">
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="87"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
-      <c r="AC62" s="52"/>
-      <c r="AD62" s="52"/>
-      <c r="AE62" s="52"/>
-      <c r="AF62" s="52"/>
-      <c r="AG62" s="52"/>
-      <c r="AH62" s="52"/>
-      <c r="AI62" s="52"/>
-      <c r="AJ62" s="52"/>
-      <c r="AK62" s="52"/>
-      <c r="AL62" s="52"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="91"/>
+      <c r="N62" s="85"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="51"/>
+      <c r="AE62" s="51"/>
+      <c r="AF62" s="51"/>
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="51"/>
+      <c r="AJ62" s="51"/>
+      <c r="AK62" s="51"/>
+      <c r="AL62" s="51"/>
     </row>
     <row r="63">
-      <c r="A63" s="120" t="s">
+      <c r="A63" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="B63" s="121" t="s">
+      <c r="B63" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="C63" s="122" t="s">
+      <c r="C63" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="46" t="b">
+      <c r="D63" s="51"/>
+      <c r="E63" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="123" t="s">
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="121" t="s">
         <v>226</v>
       </c>
-      <c r="J63" s="93"/>
-      <c r="K63" s="93"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="93"/>
-      <c r="N63" s="87"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
-      <c r="AC63" s="52"/>
-      <c r="AD63" s="52"/>
-      <c r="AE63" s="52"/>
-      <c r="AF63" s="52"/>
-      <c r="AG63" s="52"/>
-      <c r="AH63" s="52"/>
-      <c r="AI63" s="52"/>
-      <c r="AJ63" s="52"/>
-      <c r="AK63" s="52"/>
-      <c r="AL63" s="52"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="91"/>
+      <c r="N63" s="85"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="51"/>
+      <c r="W63" s="51"/>
+      <c r="X63" s="51"/>
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="51"/>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="51"/>
+      <c r="AE63" s="51"/>
+      <c r="AF63" s="51"/>
+      <c r="AG63" s="51"/>
+      <c r="AH63" s="51"/>
+      <c r="AI63" s="51"/>
+      <c r="AJ63" s="51"/>
+      <c r="AK63" s="51"/>
+      <c r="AL63" s="51"/>
     </row>
     <row r="64">
-      <c r="A64" s="124" t="s">
+      <c r="A64" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="125" t="s">
+      <c r="B64" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="122" t="s">
+      <c r="C64" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="46" t="b">
+      <c r="D64" s="51"/>
+      <c r="E64" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="123" t="s">
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="121" t="s">
         <v>226</v>
       </c>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="87"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
-      <c r="AC64" s="52"/>
-      <c r="AD64" s="52"/>
-      <c r="AE64" s="52"/>
-      <c r="AF64" s="52"/>
-      <c r="AG64" s="52"/>
-      <c r="AH64" s="52"/>
-      <c r="AI64" s="52"/>
-      <c r="AJ64" s="52"/>
-      <c r="AK64" s="52"/>
-      <c r="AL64" s="52"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="91"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="91"/>
+      <c r="N64" s="85"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+      <c r="V64" s="51"/>
+      <c r="W64" s="51"/>
+      <c r="X64" s="51"/>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="51"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="51"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="51"/>
+      <c r="AE64" s="51"/>
+      <c r="AF64" s="51"/>
+      <c r="AG64" s="51"/>
+      <c r="AH64" s="51"/>
+      <c r="AI64" s="51"/>
+      <c r="AJ64" s="51"/>
+      <c r="AK64" s="51"/>
+      <c r="AL64" s="51"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I25 I50 I52">
@@ -7417,475 +7410,475 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="124" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="124" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="126" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="126" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63" t="str">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61" t="str">
         <f>JOIN(", ",A3:A4)</f>
         <v>mat-body-gas, mat-body-liquid</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="126" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="126" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63" t="str">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61" t="str">
         <f>JOIN(", ",A5:A7)</f>
         <v>mat-gas-oxygen, mat-gas-carbondioxide, mat-gas-nitrogen</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="126" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="126" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="126" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63" t="str">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61" t="str">
         <f>JOIN(", ",A5:A20)</f>
         <v>mat-gas-oxygen, mat-gas-carbondioxide, mat-gas-nitrogen, mat-gas-water, mat-liquid-water, mat-aqueous-oxygen, mat-aqueous-carbondioxide, mat-aqueous-nitrogen, mat-aqueous-sodium-ion, mat-aqueous-potassium-ion, mat-aqueous-calcium-ion, mat-aqueous-chloride-ion, mat-aqueous-hydrogen-ion, mat-aqueous-hydroxide-ion, mat-aqueous-bicarbonate-ion, mat-aqueous-magnesium-ion</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="127" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
     </row>
     <row r="6">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="128" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="128" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
     </row>
     <row r="7">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="127" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="127" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="128" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
     </row>
     <row r="9">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
     </row>
     <row r="10">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="131" t="s">
         <v>256</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="132" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
     </row>
     <row r="13">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
     </row>
     <row r="14">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="131" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="132" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="132" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
     </row>
     <row r="15">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="131" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
     </row>
     <row r="16">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="132" t="s">
         <v>270</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
     </row>
     <row r="17">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="132" t="s">
         <v>273</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="132" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
     </row>
     <row r="18">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="132" t="s">
         <v>276</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
     </row>
     <row r="19">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="131" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
     </row>
     <row r="20">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="134" t="s">
+      <c r="B20" s="132" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="132" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
     </row>
     <row r="21">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="134" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="135" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136" t="s">
+      <c r="D21" s="137"/>
+      <c r="E21" s="134" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="138" t="s">
         <v>288</v>
       </c>
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="139" t="s">
         <v>289</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="139" t="s">
         <v>290</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="140" t="s">
+      <c r="D22" s="140"/>
+      <c r="E22" s="138" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="140" t="s">
+      <c r="A23" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143" t="s">
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="138" t="s">
         <v>294</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="139" t="s">
         <v>295</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="143" t="s">
+      <c r="C24" s="139"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="138" t="s">
         <v>297</v>
       </c>
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="139" t="s">
         <v>298</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="143" t="s">
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="138" t="s">
         <v>300</v>
       </c>
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="139" t="s">
         <v>301</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142" t="str">
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140" t="str">
         <f>JOIN(", ",A23:A25)</f>
         <v>mat-red-cells-in-blood, mat-white-cells-in-blood, mat-platelets-in-blood</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="138" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="139" t="s">
         <v>303</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="139" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="142"/>
-      <c r="E27" s="140" t="s">
+      <c r="D27" s="140"/>
+      <c r="E27" s="138" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="78" t="s">
+      <c r="D28" s="77"/>
+      <c r="E28" s="76" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="76" t="s">
         <v>309</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
     </row>
     <row r="30">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="74" t="s">
         <v>313</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="78" t="s">
+      <c r="C30" s="74"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="76" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="76" t="s">
         <v>315</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="78" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="76" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="126" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="126" t="s">
         <v>320</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
     </row>
     <row r="33">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="63" t="s">
         <v>321</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="126" t="s">
         <v>323</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="E33" s="63"/>
+      <c r="E33" s="61"/>
     </row>
     <row r="34">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="63" t="s">
         <v>324</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="126" t="s">
         <v>326</v>
       </c>
       <c r="D34" s="18"/>
-      <c r="E34" s="144" t="s">
+      <c r="E34" s="142" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="63" t="s">
         <v>327</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -7895,529 +7888,529 @@
         <v>329</v>
       </c>
       <c r="D35" s="18"/>
-      <c r="E35" s="144" t="s">
+      <c r="E35" s="142" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="145" t="s">
+      <c r="A36" s="143" t="s">
         <v>331</v>
       </c>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="144" t="s">
         <v>332</v>
       </c>
-      <c r="C36" s="147"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="145" t="s">
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="143" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="143" t="s">
         <v>334</v>
       </c>
-      <c r="B37" s="146" t="s">
+      <c r="B37" s="144" t="s">
         <v>335</v>
       </c>
-      <c r="C37" s="149" t="s">
+      <c r="C37" s="147" t="s">
         <v>336</v>
       </c>
-      <c r="D37" s="148"/>
-      <c r="E37" s="145" t="s">
+      <c r="D37" s="146"/>
+      <c r="E37" s="143" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="143" t="s">
         <v>338</v>
       </c>
-      <c r="B38" s="150" t="s">
+      <c r="B38" s="148" t="s">
         <v>339</v>
       </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="145" t="s">
+      <c r="C38" s="144"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="143" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="145" t="s">
+      <c r="A39" s="143" t="s">
         <v>341</v>
       </c>
-      <c r="B39" s="146" t="s">
+      <c r="B39" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="144" t="s">
         <v>343</v>
       </c>
-      <c r="D39" s="148"/>
-      <c r="E39" s="145" t="s">
+      <c r="D39" s="146"/>
+      <c r="E39" s="143" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="145" t="s">
+      <c r="A40" s="143" t="s">
         <v>345</v>
       </c>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="148" t="s">
         <v>346</v>
       </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="145" t="s">
+      <c r="C40" s="144"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="143" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="145" t="s">
+      <c r="A41" s="143" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="151" t="s">
+      <c r="B41" s="149" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="144" t="s">
         <v>350</v>
       </c>
-      <c r="D41" s="147"/>
-      <c r="E41" s="145" t="s">
+      <c r="D41" s="145"/>
+      <c r="E41" s="143" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="152" t="s">
+      <c r="A42" s="150" t="s">
         <v>352</v>
       </c>
-      <c r="B42" s="150" t="s">
+      <c r="B42" s="148" t="s">
         <v>353</v>
       </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="145" t="s">
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="143" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="145" t="s">
+      <c r="A43" s="143" t="s">
         <v>355</v>
       </c>
-      <c r="B43" s="146" t="s">
+      <c r="B43" s="144" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="146" t="s">
+      <c r="C43" s="144" t="s">
         <v>357</v>
       </c>
-      <c r="D43" s="147"/>
-      <c r="E43" s="145" t="s">
+      <c r="D43" s="145"/>
+      <c r="E43" s="143" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="145" t="s">
+      <c r="A44" s="143" t="s">
         <v>359</v>
       </c>
-      <c r="B44" s="150" t="s">
+      <c r="B44" s="148" t="s">
         <v>360</v>
       </c>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="145" t="s">
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="143" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="145" t="s">
+      <c r="A45" s="143" t="s">
         <v>362</v>
       </c>
-      <c r="B45" s="146" t="s">
+      <c r="B45" s="144" t="s">
         <v>363</v>
       </c>
-      <c r="C45" s="149" t="s">
+      <c r="C45" s="147" t="s">
         <v>364</v>
       </c>
-      <c r="D45" s="148"/>
-      <c r="E45" s="145" t="s">
+      <c r="D45" s="146"/>
+      <c r="E45" s="143" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="145" t="s">
+      <c r="A46" s="143" t="s">
         <v>366</v>
       </c>
-      <c r="B46" s="150" t="s">
+      <c r="B46" s="148" t="s">
         <v>367</v>
       </c>
-      <c r="C46" s="147"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="145" t="s">
+      <c r="C46" s="145"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="143" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="145" t="s">
+      <c r="A47" s="143" t="s">
         <v>369</v>
       </c>
-      <c r="B47" s="146" t="s">
+      <c r="B47" s="144" t="s">
         <v>370</v>
       </c>
-      <c r="C47" s="149" t="s">
+      <c r="C47" s="147" t="s">
         <v>371</v>
       </c>
-      <c r="D47" s="148"/>
-      <c r="E47" s="145" t="s">
+      <c r="D47" s="146"/>
+      <c r="E47" s="143" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="145" t="s">
+      <c r="A48" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="B48" s="146" t="s">
+      <c r="B48" s="144" t="s">
         <v>374</v>
       </c>
-      <c r="C48" s="146"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="145" t="s">
+      <c r="C48" s="144"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="143" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="145" t="s">
+      <c r="A49" s="143" t="s">
         <v>376</v>
       </c>
-      <c r="B49" s="146" t="s">
+      <c r="B49" s="144" t="s">
         <v>377</v>
       </c>
-      <c r="C49" s="153" t="s">
+      <c r="C49" s="151" t="s">
         <v>378</v>
       </c>
-      <c r="D49" s="148"/>
-      <c r="E49" s="145" t="s">
+      <c r="D49" s="146"/>
+      <c r="E49" s="143" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="145" t="s">
+      <c r="A50" s="143" t="s">
         <v>380</v>
       </c>
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="148" t="s">
         <v>381</v>
       </c>
-      <c r="C50" s="146"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="146"/>
     </row>
     <row r="51">
-      <c r="A51" s="145" t="s">
+      <c r="A51" s="143" t="s">
         <v>382</v>
       </c>
-      <c r="B51" s="146" t="s">
+      <c r="B51" s="144" t="s">
         <v>383</v>
       </c>
-      <c r="C51" s="153" t="s">
+      <c r="C51" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
     </row>
     <row r="52">
-      <c r="A52" s="145" t="s">
+      <c r="A52" s="143" t="s">
         <v>385</v>
       </c>
-      <c r="B52" s="150" t="s">
+      <c r="B52" s="148" t="s">
         <v>386</v>
       </c>
-      <c r="C52" s="146"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="148"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
     </row>
     <row r="53">
-      <c r="A53" s="145" t="s">
+      <c r="A53" s="143" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="146" t="s">
+      <c r="B53" s="144" t="s">
         <v>388</v>
       </c>
-      <c r="C53" s="149" t="s">
+      <c r="C53" s="147" t="s">
         <v>389</v>
       </c>
-      <c r="D53" s="148"/>
-      <c r="E53" s="148"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
     </row>
     <row r="54">
-      <c r="A54" s="145" t="s">
+      <c r="A54" s="143" t="s">
         <v>390</v>
       </c>
-      <c r="B54" s="150" t="s">
+      <c r="B54" s="148" t="s">
         <v>391</v>
       </c>
-      <c r="C54" s="146"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="154"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="152"/>
     </row>
     <row r="55">
-      <c r="A55" s="145" t="s">
+      <c r="A55" s="143" t="s">
         <v>392</v>
       </c>
-      <c r="B55" s="146" t="s">
+      <c r="B55" s="144" t="s">
         <v>393</v>
       </c>
-      <c r="C55" s="146" t="s">
+      <c r="C55" s="144" t="s">
         <v>394</v>
       </c>
-      <c r="D55" s="148"/>
-      <c r="E55" s="154"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="152"/>
     </row>
     <row r="56">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="143" t="s">
         <v>395</v>
       </c>
-      <c r="B56" s="150" t="s">
+      <c r="B56" s="148" t="s">
         <v>396</v>
       </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="145" t="s">
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="143" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="145" t="s">
+      <c r="A57" s="143" t="s">
         <v>397</v>
       </c>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="144" t="s">
         <v>398</v>
       </c>
-      <c r="C57" s="146" t="s">
+      <c r="C57" s="144" t="s">
         <v>399</v>
       </c>
-      <c r="D57" s="148"/>
-      <c r="E57" s="145" t="s">
+      <c r="D57" s="146"/>
+      <c r="E57" s="143" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="155" t="s">
+      <c r="A58" s="153" t="s">
         <v>400</v>
       </c>
-      <c r="B58" s="156" t="s">
+      <c r="B58" s="154" t="s">
         <v>401</v>
       </c>
-      <c r="C58" s="156" t="s">
+      <c r="C58" s="154" t="s">
         <v>402</v>
       </c>
-      <c r="D58" s="157"/>
-      <c r="E58" s="155" t="s">
+      <c r="D58" s="155"/>
+      <c r="E58" s="153" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="155" t="s">
+      <c r="A59" s="153" t="s">
         <v>403</v>
       </c>
-      <c r="B59" s="158" t="s">
+      <c r="B59" s="156" t="s">
         <v>404</v>
       </c>
-      <c r="C59" s="159"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="155" t="s">
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="153" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="155" t="s">
+      <c r="A60" s="153" t="s">
         <v>406</v>
       </c>
-      <c r="B60" s="156" t="s">
+      <c r="B60" s="154" t="s">
         <v>407</v>
       </c>
-      <c r="C60" s="160" t="s">
+      <c r="C60" s="158" t="s">
         <v>408</v>
       </c>
-      <c r="D60" s="159"/>
-      <c r="E60" s="155" t="s">
+      <c r="D60" s="157"/>
+      <c r="E60" s="153" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="153" t="s">
         <v>410</v>
       </c>
-      <c r="B61" s="156" t="s">
+      <c r="B61" s="154" t="s">
         <v>411</v>
       </c>
-      <c r="C61" s="159"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="155" t="s">
+      <c r="C61" s="157"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="153" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="155" t="s">
+      <c r="A62" s="153" t="s">
         <v>413</v>
       </c>
-      <c r="B62" s="156" t="s">
+      <c r="B62" s="154" t="s">
         <v>414</v>
       </c>
-      <c r="C62" s="156" t="s">
+      <c r="C62" s="154" t="s">
         <v>415</v>
       </c>
-      <c r="D62" s="157"/>
-      <c r="E62" s="155" t="s">
+      <c r="D62" s="155"/>
+      <c r="E62" s="153" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="155" t="s">
+      <c r="A63" s="153" t="s">
         <v>417</v>
       </c>
-      <c r="B63" s="156" t="s">
+      <c r="B63" s="154" t="s">
         <v>418</v>
       </c>
-      <c r="C63" s="159"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="155" t="s">
+      <c r="C63" s="157"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="153" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="155" t="s">
+      <c r="A64" s="153" t="s">
         <v>419</v>
       </c>
-      <c r="B64" s="156" t="s">
+      <c r="B64" s="154" t="s">
         <v>420</v>
       </c>
-      <c r="C64" s="161" t="s">
+      <c r="C64" s="159" t="s">
         <v>421</v>
       </c>
-      <c r="D64" s="157"/>
-      <c r="E64" s="155" t="s">
+      <c r="D64" s="155"/>
+      <c r="E64" s="153" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="153" t="s">
         <v>423</v>
       </c>
-      <c r="B65" s="158" t="s">
+      <c r="B65" s="156" t="s">
         <v>424</v>
       </c>
-      <c r="C65" s="159"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="155" t="s">
+      <c r="C65" s="157"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="153" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="155" t="s">
+      <c r="A66" s="153" t="s">
         <v>426</v>
       </c>
-      <c r="B66" s="156" t="s">
+      <c r="B66" s="154" t="s">
         <v>427</v>
       </c>
-      <c r="C66" s="156" t="s">
+      <c r="C66" s="154" t="s">
         <v>428</v>
       </c>
-      <c r="D66" s="157"/>
-      <c r="E66" s="155" t="s">
+      <c r="D66" s="155"/>
+      <c r="E66" s="153" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="160" t="s">
         <v>430</v>
       </c>
-      <c r="B67" s="163" t="s">
+      <c r="B67" s="161" t="s">
         <v>431</v>
       </c>
-      <c r="C67" s="164"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="165"/>
+      <c r="C67" s="162"/>
+      <c r="D67" s="163"/>
+      <c r="E67" s="163"/>
     </row>
     <row r="68">
-      <c r="A68" s="162" t="s">
+      <c r="A68" s="160" t="s">
         <v>432</v>
       </c>
-      <c r="B68" s="163" t="s">
+      <c r="B68" s="161" t="s">
         <v>433</v>
       </c>
-      <c r="C68" s="164"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
+      <c r="C68" s="162"/>
+      <c r="D68" s="163"/>
+      <c r="E68" s="163"/>
     </row>
     <row r="69">
-      <c r="A69" s="162" t="s">
+      <c r="A69" s="160" t="s">
         <v>434</v>
       </c>
-      <c r="B69" s="163" t="s">
+      <c r="B69" s="161" t="s">
         <v>435</v>
       </c>
-      <c r="C69" s="164"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="165"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="163"/>
+      <c r="E69" s="163"/>
     </row>
     <row r="70">
-      <c r="A70" s="162" t="s">
+      <c r="A70" s="160" t="s">
         <v>436</v>
       </c>
-      <c r="B70" s="163" t="s">
+      <c r="B70" s="161" t="s">
         <v>437</v>
       </c>
-      <c r="C70" s="164"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="165"/>
+      <c r="C70" s="162"/>
+      <c r="D70" s="163"/>
+      <c r="E70" s="163"/>
     </row>
     <row r="71">
-      <c r="A71" s="162" t="s">
+      <c r="A71" s="160" t="s">
         <v>438</v>
       </c>
-      <c r="B71" s="163" t="s">
+      <c r="B71" s="161" t="s">
         <v>439</v>
       </c>
-      <c r="C71" s="164"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
+      <c r="C71" s="162"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="163"/>
     </row>
     <row r="72">
-      <c r="A72" s="166" t="s">
+      <c r="A72" s="164" t="s">
         <v>440</v>
       </c>
-      <c r="B72" s="167" t="s">
+      <c r="B72" s="165" t="s">
         <v>441</v>
       </c>
-      <c r="C72" s="167" t="s">
+      <c r="C72" s="165" t="s">
         <v>442</v>
       </c>
-      <c r="D72" s="168"/>
+      <c r="D72" s="166"/>
       <c r="E72" s="18"/>
     </row>
     <row r="73">
-      <c r="A73" s="169" t="s">
+      <c r="A73" s="167" t="s">
         <v>443</v>
       </c>
-      <c r="B73" s="167" t="s">
+      <c r="B73" s="165" t="s">
         <v>444</v>
       </c>
-      <c r="C73" s="170" t="s">
+      <c r="C73" s="168" t="s">
         <v>445</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
     </row>
     <row r="74">
-      <c r="A74" s="169" t="s">
+      <c r="A74" s="167" t="s">
         <v>446</v>
       </c>
-      <c r="B74" s="167" t="s">
+      <c r="B74" s="165" t="s">
         <v>447</v>
       </c>
-      <c r="C74" s="170" t="s">
+      <c r="C74" s="168" t="s">
         <v>448</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
     </row>
     <row r="75">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="63" t="s">
         <v>137</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -8430,7 +8423,7 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76">
-      <c r="A76" s="65" t="s">
+      <c r="A76" s="63" t="s">
         <v>451</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -8446,222 +8439,222 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="171" t="s">
+      <c r="A77" s="169" t="s">
         <v>454</v>
       </c>
-      <c r="B77" s="172" t="s">
+      <c r="B77" s="170" t="s">
         <v>455</v>
       </c>
-      <c r="C77" s="172" t="s">
+      <c r="C77" s="170" t="s">
         <v>456</v>
       </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
     </row>
     <row r="78">
-      <c r="A78" s="171" t="s">
+      <c r="A78" s="169" t="s">
         <v>457</v>
       </c>
-      <c r="B78" s="172" t="s">
+      <c r="B78" s="170" t="s">
         <v>458</v>
       </c>
-      <c r="C78" s="172" t="s">
+      <c r="C78" s="170" t="s">
         <v>459</v>
       </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
     </row>
     <row r="79">
-      <c r="A79" s="171" t="s">
+      <c r="A79" s="169" t="s">
         <v>460</v>
       </c>
-      <c r="B79" s="172" t="s">
+      <c r="B79" s="170" t="s">
         <v>461</v>
       </c>
-      <c r="C79" s="172" t="s">
+      <c r="C79" s="170" t="s">
         <v>462</v>
       </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
     </row>
     <row r="80">
-      <c r="A80" s="171" t="s">
+      <c r="A80" s="169" t="s">
         <v>463</v>
       </c>
-      <c r="B80" s="172" t="s">
+      <c r="B80" s="170" t="s">
         <v>464</v>
       </c>
-      <c r="C80" s="172" t="s">
+      <c r="C80" s="170" t="s">
         <v>465</v>
       </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
     </row>
     <row r="81">
-      <c r="A81" s="171" t="s">
+      <c r="A81" s="169" t="s">
         <v>466</v>
       </c>
-      <c r="B81" s="172" t="s">
+      <c r="B81" s="170" t="s">
         <v>467</v>
       </c>
-      <c r="C81" s="172" t="s">
+      <c r="C81" s="170" t="s">
         <v>468</v>
       </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
     </row>
     <row r="82">
-      <c r="A82" s="171" t="s">
+      <c r="A82" s="169" t="s">
         <v>469</v>
       </c>
-      <c r="B82" s="172" t="s">
+      <c r="B82" s="170" t="s">
         <v>470</v>
       </c>
-      <c r="C82" s="172" t="s">
+      <c r="C82" s="170" t="s">
         <v>471</v>
       </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
     </row>
     <row r="83">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="169" t="s">
         <v>472</v>
       </c>
-      <c r="B83" s="172" t="s">
+      <c r="B83" s="170" t="s">
         <v>473</v>
       </c>
-      <c r="C83" s="172" t="s">
+      <c r="C83" s="170" t="s">
         <v>474</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
     </row>
     <row r="84">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="169" t="s">
         <v>475</v>
       </c>
-      <c r="B84" s="172" t="s">
+      <c r="B84" s="170" t="s">
         <v>476</v>
       </c>
-      <c r="C84" s="172" t="s">
+      <c r="C84" s="170" t="s">
         <v>477</v>
       </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
     </row>
     <row r="85">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="169" t="s">
         <v>478</v>
       </c>
-      <c r="B85" s="172" t="s">
+      <c r="B85" s="170" t="s">
         <v>479</v>
       </c>
-      <c r="C85" s="172" t="s">
+      <c r="C85" s="170" t="s">
         <v>480</v>
       </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
     </row>
     <row r="86">
-      <c r="A86" s="171" t="s">
+      <c r="A86" s="169" t="s">
         <v>481</v>
       </c>
-      <c r="B86" s="172" t="s">
+      <c r="B86" s="170" t="s">
         <v>482</v>
       </c>
-      <c r="C86" s="172" t="s">
+      <c r="C86" s="170" t="s">
         <v>483</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
     </row>
     <row r="87">
-      <c r="A87" s="171" t="s">
+      <c r="A87" s="169" t="s">
         <v>484</v>
       </c>
-      <c r="B87" s="171" t="s">
+      <c r="B87" s="169" t="s">
         <v>485</v>
       </c>
-      <c r="C87" s="172"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
     </row>
     <row r="88">
-      <c r="A88" s="171" t="s">
+      <c r="A88" s="169" t="s">
         <v>486</v>
       </c>
-      <c r="B88" s="171" t="s">
+      <c r="B88" s="169" t="s">
         <v>487</v>
       </c>
-      <c r="C88" s="172"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
     </row>
     <row r="89">
-      <c r="A89" s="171" t="s">
+      <c r="A89" s="169" t="s">
         <v>488</v>
       </c>
-      <c r="B89" s="171" t="s">
+      <c r="B89" s="169" t="s">
         <v>489</v>
       </c>
-      <c r="C89" s="172"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
+      <c r="C89" s="170"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
     </row>
     <row r="90">
-      <c r="A90" s="171" t="s">
+      <c r="A90" s="169" t="s">
         <v>490</v>
       </c>
-      <c r="B90" s="171" t="s">
+      <c r="B90" s="169" t="s">
         <v>491</v>
       </c>
-      <c r="C90" s="172"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
     </row>
     <row r="91">
-      <c r="A91" s="171" t="s">
+      <c r="A91" s="169" t="s">
         <v>492</v>
       </c>
-      <c r="B91" s="171" t="s">
+      <c r="B91" s="169" t="s">
         <v>493</v>
       </c>
-      <c r="C91" s="172"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
     </row>
     <row r="92">
-      <c r="A92" s="173" t="s">
+      <c r="A92" s="171" t="s">
         <v>494</v>
       </c>
-      <c r="B92" s="173" t="s">
+      <c r="B92" s="171" t="s">
         <v>495</v>
       </c>
-      <c r="C92" s="172"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
+      <c r="C92" s="170"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
     </row>
     <row r="93">
-      <c r="A93" s="171" t="s">
+      <c r="A93" s="169" t="s">
         <v>496</v>
       </c>
-      <c r="B93" s="171" t="s">
+      <c r="B93" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="C93" s="172"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
+      <c r="C93" s="170"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
     </row>
     <row r="94">
-      <c r="A94" s="171" t="s">
+      <c r="A94" s="169" t="s">
         <v>498</v>
       </c>
-      <c r="B94" s="171" t="s">
+      <c r="B94" s="169" t="s">
         <v>499</v>
       </c>
-      <c r="C94" s="172"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
     </row>
     <row r="95">
       <c r="A95" s="14" t="s">
@@ -8673,257 +8666,257 @@
       <c r="C95" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="D95" s="145" t="s">
+      <c r="D95" s="143" t="s">
         <v>503</v>
       </c>
-      <c r="E95" s="58"/>
+      <c r="E95" s="56"/>
     </row>
     <row r="96">
-      <c r="A96" s="174" t="s">
+      <c r="A96" s="172" t="s">
         <v>504</v>
       </c>
-      <c r="C96" s="172"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
+      <c r="C96" s="170"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
     </row>
     <row r="97">
-      <c r="A97" s="175" t="s">
+      <c r="A97" s="173" t="s">
         <v>505</v>
       </c>
-      <c r="B97" s="172"/>
-      <c r="C97" s="172"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
+      <c r="B97" s="170"/>
+      <c r="C97" s="170"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
     </row>
     <row r="98">
-      <c r="A98" s="175" t="s">
+      <c r="A98" s="173" t="s">
         <v>506</v>
       </c>
-      <c r="B98" s="172"/>
-      <c r="C98" s="172"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="58"/>
+      <c r="B98" s="170"/>
+      <c r="C98" s="170"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
     </row>
     <row r="99">
-      <c r="A99" s="176" t="s">
+      <c r="A99" s="174" t="s">
         <v>507</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C99" s="117" t="s">
+      <c r="C99" s="115" t="s">
         <v>509</v>
       </c>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
     </row>
     <row r="100">
-      <c r="A100" s="176" t="s">
+      <c r="A100" s="174" t="s">
         <v>510</v>
       </c>
-      <c r="B100" s="177" t="s">
+      <c r="B100" s="175" t="s">
         <v>511</v>
       </c>
-      <c r="C100" s="117" t="s">
+      <c r="C100" s="115" t="s">
         <v>512</v>
       </c>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
     </row>
     <row r="101">
-      <c r="A101" s="176"/>
-      <c r="B101" s="177"/>
-      <c r="C101" s="117"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
+      <c r="A101" s="174"/>
+      <c r="B101" s="175"/>
+      <c r="C101" s="115"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
     </row>
     <row r="102">
-      <c r="A102" s="178" t="s">
+      <c r="A102" s="176" t="s">
         <v>513</v>
       </c>
-      <c r="B102" s="177" t="s">
+      <c r="B102" s="175" t="s">
         <v>514</v>
       </c>
-      <c r="C102" s="117" t="s">
+      <c r="C102" s="115" t="s">
         <v>515</v>
       </c>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
     </row>
     <row r="103">
-      <c r="A103" s="179" t="s">
+      <c r="A103" s="177" t="s">
         <v>516</v>
       </c>
-      <c r="B103" s="177" t="s">
+      <c r="B103" s="175" t="s">
         <v>517</v>
       </c>
-      <c r="C103" s="117" t="s">
+      <c r="C103" s="115" t="s">
         <v>518</v>
       </c>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
     </row>
     <row r="104">
-      <c r="A104" s="180" t="s">
+      <c r="A104" s="178" t="s">
         <v>519</v>
       </c>
-      <c r="B104" s="177" t="s">
+      <c r="B104" s="175" t="s">
         <v>520</v>
       </c>
-      <c r="C104" s="117"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
+      <c r="C104" s="115"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
     </row>
     <row r="105">
-      <c r="A105" s="180" t="s">
+      <c r="A105" s="178" t="s">
         <v>521</v>
       </c>
-      <c r="B105" s="177" t="s">
+      <c r="B105" s="175" t="s">
         <v>522</v>
       </c>
-      <c r="C105" s="117"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
+      <c r="C105" s="115"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
     </row>
     <row r="106">
-      <c r="A106" s="123"/>
-      <c r="B106" s="177"/>
-      <c r="C106" s="117"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
+      <c r="A106" s="121"/>
+      <c r="B106" s="175"/>
+      <c r="C106" s="115"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
     </row>
     <row r="107">
-      <c r="A107" s="123"/>
-      <c r="B107" s="177"/>
-      <c r="C107" s="117"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
+      <c r="A107" s="121"/>
+      <c r="B107" s="175"/>
+      <c r="C107" s="115"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
     </row>
     <row r="108">
-      <c r="A108" s="123"/>
-      <c r="B108" s="177"/>
-      <c r="C108" s="117"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
+      <c r="A108" s="121"/>
+      <c r="B108" s="175"/>
+      <c r="C108" s="115"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
     </row>
     <row r="109">
-      <c r="A109" s="123"/>
-      <c r="B109" s="177"/>
-      <c r="C109" s="117"/>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
+      <c r="A109" s="121"/>
+      <c r="B109" s="175"/>
+      <c r="C109" s="115"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
     </row>
     <row r="110">
-      <c r="A110" s="123"/>
-      <c r="B110" s="177"/>
-      <c r="C110" s="117"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
+      <c r="A110" s="121"/>
+      <c r="B110" s="175"/>
+      <c r="C110" s="115"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
     </row>
     <row r="111">
-      <c r="A111" s="123"/>
-      <c r="B111" s="177"/>
-      <c r="C111" s="117"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
+      <c r="A111" s="121"/>
+      <c r="B111" s="175"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
     </row>
     <row r="112">
-      <c r="A112" s="123"/>
-      <c r="B112" s="177"/>
-      <c r="C112" s="117"/>
-      <c r="D112" s="52"/>
-      <c r="E112" s="52"/>
+      <c r="A112" s="121"/>
+      <c r="B112" s="175"/>
+      <c r="C112" s="115"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
     </row>
     <row r="113">
-      <c r="A113" s="123"/>
-      <c r="B113" s="177"/>
-      <c r="C113" s="117"/>
-      <c r="D113" s="52"/>
-      <c r="E113" s="52"/>
+      <c r="A113" s="121"/>
+      <c r="B113" s="175"/>
+      <c r="C113" s="115"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
     </row>
     <row r="114">
-      <c r="A114" s="123"/>
-      <c r="B114" s="177"/>
-      <c r="C114" s="117"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
+      <c r="A114" s="121"/>
+      <c r="B114" s="175"/>
+      <c r="C114" s="115"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
     </row>
     <row r="115">
-      <c r="A115" s="123"/>
-      <c r="B115" s="177"/>
-      <c r="C115" s="117"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
+      <c r="A115" s="121"/>
+      <c r="B115" s="175"/>
+      <c r="C115" s="115"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
     </row>
     <row r="116">
-      <c r="A116" s="123"/>
-      <c r="B116" s="177"/>
-      <c r="C116" s="117"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52"/>
+      <c r="A116" s="121"/>
+      <c r="B116" s="175"/>
+      <c r="C116" s="115"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
     </row>
     <row r="117">
-      <c r="A117" s="123"/>
-      <c r="B117" s="177"/>
-      <c r="C117" s="117"/>
-      <c r="D117" s="52"/>
-      <c r="E117" s="52"/>
+      <c r="A117" s="121"/>
+      <c r="B117" s="175"/>
+      <c r="C117" s="115"/>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
     </row>
     <row r="118">
-      <c r="A118" s="123"/>
-      <c r="B118" s="177"/>
-      <c r="C118" s="117"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="52"/>
+      <c r="A118" s="121"/>
+      <c r="B118" s="175"/>
+      <c r="C118" s="115"/>
+      <c r="D118" s="51"/>
+      <c r="E118" s="51"/>
     </row>
     <row r="119">
-      <c r="A119" s="123"/>
-      <c r="B119" s="177"/>
-      <c r="C119" s="117"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
+      <c r="A119" s="121"/>
+      <c r="B119" s="175"/>
+      <c r="C119" s="115"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
     </row>
     <row r="120">
-      <c r="A120" s="123"/>
-      <c r="B120" s="177"/>
-      <c r="C120" s="117"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
+      <c r="A120" s="121"/>
+      <c r="B120" s="175"/>
+      <c r="C120" s="115"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
     </row>
     <row r="121">
-      <c r="A121" s="123"/>
-      <c r="B121" s="177"/>
-      <c r="C121" s="117"/>
-      <c r="D121" s="52"/>
-      <c r="E121" s="52"/>
+      <c r="A121" s="121"/>
+      <c r="B121" s="175"/>
+      <c r="C121" s="115"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
     </row>
     <row r="122">
-      <c r="A122" s="123"/>
-      <c r="B122" s="177"/>
-      <c r="C122" s="117"/>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
+      <c r="A122" s="121"/>
+      <c r="B122" s="175"/>
+      <c r="C122" s="115"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
     </row>
     <row r="123">
-      <c r="A123" s="123"/>
-      <c r="B123" s="177"/>
-      <c r="C123" s="117"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
+      <c r="A123" s="121"/>
+      <c r="B123" s="175"/>
+      <c r="C123" s="115"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
     </row>
     <row r="124">
-      <c r="A124" s="123"/>
-      <c r="B124" s="177"/>
-      <c r="C124" s="117"/>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
+      <c r="A124" s="121"/>
+      <c r="B124" s="175"/>
+      <c r="C124" s="115"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51"/>
     </row>
     <row r="125">
-      <c r="A125" s="123"/>
-      <c r="B125" s="177"/>
-      <c r="C125" s="117"/>
-      <c r="D125" s="52"/>
-      <c r="E125" s="52"/>
+      <c r="A125" s="121"/>
+      <c r="B125" s="175"/>
+      <c r="C125" s="115"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8952,52 +8945,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="125" t="s">
         <v>523</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="125" t="s">
         <v>524</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="125" t="s">
         <v>525</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="125" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="179" t="s">
         <v>527</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="180" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>530</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="183"/>
+      <c r="F2" s="181"/>
       <c r="G2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="182" t="s">
         <v>532</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -9009,14 +9002,14 @@
       <c r="E3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="183"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="182" t="s">
         <v>536</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -9028,14 +9021,14 @@
       <c r="E4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="183"/>
+      <c r="F4" s="181"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="182" t="s">
         <v>540</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -9047,14 +9040,14 @@
       <c r="E5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="183"/>
+      <c r="F5" s="181"/>
       <c r="G5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="182" t="s">
         <v>544</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -9066,14 +9059,14 @@
       <c r="E6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="183"/>
+      <c r="F6" s="181"/>
       <c r="G6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="182" t="s">
         <v>548</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -9082,17 +9075,17 @@
       <c r="D7" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="183"/>
+      <c r="F7" s="181"/>
       <c r="G7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="182" t="s">
         <v>552</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -9101,115 +9094,115 @@
       <c r="D8" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="183"/>
+      <c r="F8" s="181"/>
       <c r="G8" s="18"/>
     </row>
     <row r="9">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="183" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="183" t="s">
         <v>556</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="184" t="s">
         <v>557</v>
       </c>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="184" t="s">
         <v>558</v>
       </c>
-      <c r="E9" s="185" t="s">
+      <c r="E9" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="187"/>
-      <c r="G9" s="148"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="146"/>
     </row>
     <row r="10">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="183" t="s">
         <v>559</v>
       </c>
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="183" t="s">
         <v>560</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="184" t="s">
         <v>561</v>
       </c>
-      <c r="D10" s="188" t="s">
+      <c r="D10" s="186" t="s">
         <v>562</v>
       </c>
-      <c r="E10" s="185" t="s">
+      <c r="E10" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="148"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="146"/>
     </row>
     <row r="11">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="86" t="s">
         <v>563</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>564</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>565</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>566</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="189"/>
-      <c r="G11" s="52"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="189"/>
-      <c r="G12" s="52"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>571</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>572</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="189"/>
-      <c r="G13" s="52"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14">
-      <c r="A14" s="190"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="52"/>
+      <c r="A14" s="188"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="51"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -9251,49 +9244,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="125" t="s">
         <v>575</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="125" t="s">
         <v>576</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="125" t="s">
         <v>577</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="125" t="s">
         <v>578</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="125" t="s">
         <v>579</v>
       </c>
-      <c r="J1" s="192" t="s">
+      <c r="J1" s="190" t="s">
         <v>580</v>
       </c>
-      <c r="K1" s="127" t="s">
+      <c r="K1" s="125" t="s">
         <v>581</v>
       </c>
-      <c r="L1" s="193" t="s">
+      <c r="L1" s="191" t="s">
         <v>582</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="125" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="127" t="s">
+      <c r="N1" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="127" t="s">
+      <c r="O1" s="125" t="s">
         <v>583</v>
       </c>
       <c r="P1" s="23" t="s">
@@ -9304,307 +9297,307 @@
       <c r="S1" s="23"/>
     </row>
     <row r="2">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>585</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="106" t="s">
         <v>586</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="194" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="192" t="s">
         <v>587</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="109" t="s">
+      <c r="E2" s="113"/>
+      <c r="F2" s="107" t="s">
         <v>588</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="107" t="s">
         <v>589</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="108" t="s">
+      <c r="H2" s="106"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="106" t="s">
         <v>590</v>
       </c>
-      <c r="P2" s="195" t="b">
+      <c r="P2" s="193" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="194" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="195" t="s">
         <v>592</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="196" t="s">
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="106" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="107" t="s">
         <v>594</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="200" t="s">
+      <c r="H3" s="110"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="198" t="s">
         <v>595</v>
       </c>
-      <c r="L3" s="109" t="s">
+      <c r="L3" s="107" t="s">
         <v>596</v>
       </c>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="109" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="107" t="s">
         <v>597</v>
       </c>
-      <c r="P3" s="195" t="b">
+      <c r="P3" s="193" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="193"/>
     </row>
     <row r="4">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="194" t="s">
         <v>598</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="196" t="s">
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="201" t="s">
+      <c r="F4" s="199" t="s">
         <v>599</v>
       </c>
-      <c r="G4" s="201" t="s">
+      <c r="G4" s="199" t="s">
         <v>600</v>
       </c>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="201" t="s">
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="199" t="s">
         <v>595</v>
       </c>
-      <c r="L4" s="201" t="s">
+      <c r="L4" s="199" t="s">
         <v>601</v>
       </c>
-      <c r="M4" s="199"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="109" t="s">
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="107" t="s">
         <v>597</v>
       </c>
-      <c r="P4" s="202" t="b">
+      <c r="P4" s="200" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="199"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
     </row>
     <row r="5">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="194" t="s">
         <v>602</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="196" t="s">
+      <c r="B5" s="195"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="201" t="s">
+      <c r="F5" s="199" t="s">
         <v>603</v>
       </c>
-      <c r="G5" s="201" t="s">
+      <c r="G5" s="199" t="s">
         <v>600</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="200" t="s">
+      <c r="H5" s="110"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="198" t="s">
         <v>595</v>
       </c>
-      <c r="L5" s="109" t="s">
+      <c r="L5" s="107" t="s">
         <v>604</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="202"/>
-      <c r="Q5" s="195"/>
-      <c r="R5" s="195"/>
-      <c r="S5" s="195"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="193"/>
     </row>
     <row r="6">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="194" t="s">
         <v>605</v>
       </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="196" t="s">
+      <c r="B6" s="195"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="107" t="s">
         <v>594</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="200" t="s">
+      <c r="H6" s="110"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="198" t="s">
         <v>595</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="107" t="s">
         <v>606</v>
       </c>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="202" t="b">
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="200" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="195"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
     </row>
     <row r="7">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="194" t="s">
         <v>607</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="203"/>
-      <c r="E7" s="196" t="s">
+      <c r="B7" s="182"/>
+      <c r="C7" s="201"/>
+      <c r="E7" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="107" t="s">
         <v>594</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="107" t="s">
         <v>608</v>
       </c>
-      <c r="H7" s="204"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="200">
+      <c r="H7" s="202"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="198">
         <v>0.0</v>
       </c>
-      <c r="L7" s="109" t="s">
+      <c r="L7" s="107" t="s">
         <v>609</v>
       </c>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="109" t="s">
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="107" t="s">
         <v>610</v>
       </c>
-      <c r="P7" s="205"/>
-      <c r="Q7" s="206"/>
-      <c r="R7" s="206"/>
-      <c r="S7" s="206"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="194" t="s">
         <v>611</v>
       </c>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="195" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="207" t="s">
+      <c r="C8" s="196"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="205" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="107" t="s">
         <v>612</v>
       </c>
-      <c r="G8" s="201" t="s">
+      <c r="G8" s="199" t="s">
         <v>613</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="200">
+      <c r="H8" s="110"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="198">
         <v>0.0</v>
       </c>
-      <c r="L8" s="208" t="s">
+      <c r="L8" s="206" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="109" t="s">
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="107" t="s">
         <v>614</v>
       </c>
-      <c r="P8" s="202" t="b">
+      <c r="P8" s="200" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
     </row>
     <row r="9">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="194" t="s">
         <v>615</v>
       </c>
-      <c r="B9" s="209" t="s">
+      <c r="B9" s="207" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="198"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="210" t="s">
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="208" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="107" t="s">
         <v>616</v>
       </c>
-      <c r="G9" s="201" t="s">
+      <c r="G9" s="199" t="s">
         <v>617</v>
       </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="200">
+      <c r="H9" s="110"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="198">
         <v>0.0</v>
       </c>
-      <c r="L9" s="204" t="s">
+      <c r="L9" s="202" t="s">
         <v>212</v>
       </c>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="109" t="s">
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="107" t="s">
         <v>618</v>
       </c>
-      <c r="P9" s="202" t="b">
+      <c r="P9" s="200" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" s="195"/>
-      <c r="R9" s="195"/>
-      <c r="S9" s="195"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
     </row>
     <row r="10">
-      <c r="A10" s="211" t="s">
+      <c r="A10" s="209" t="s">
         <v>619</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="182" t="s">
         <v>620</v>
       </c>
-      <c r="C10" s="212" t="s">
+      <c r="C10" s="210" t="s">
         <v>621</v>
       </c>
-      <c r="E10" s="190" t="s">
+      <c r="E10" s="188" t="s">
         <v>178</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -9616,31 +9609,31 @@
       <c r="H10" s="13"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="213">
+      <c r="K10" s="211">
         <v>7.0</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="63" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="206"/>
-      <c r="R10" s="206"/>
-      <c r="S10" s="206"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
     </row>
     <row r="11">
-      <c r="A11" s="211" t="s">
+      <c r="A11" s="209" t="s">
         <v>623</v>
       </c>
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="182" t="s">
         <v>624</v>
       </c>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="210" t="s">
         <v>625</v>
       </c>
-      <c r="E11" s="190" t="s">
+      <c r="E11" s="188" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -9652,31 +9645,31 @@
       <c r="H11" s="13"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="214" t="s">
+      <c r="K11" s="212" t="s">
         <v>627</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="28" t="s">
         <v>628</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="206"/>
-      <c r="Q11" s="206"/>
-      <c r="R11" s="206"/>
-      <c r="S11" s="206"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
     </row>
     <row r="12">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="209" t="s">
         <v>629</v>
       </c>
-      <c r="B12" s="184" t="s">
+      <c r="B12" s="182" t="s">
         <v>630</v>
       </c>
-      <c r="C12" s="212" t="s">
+      <c r="C12" s="210" t="s">
         <v>625</v>
       </c>
-      <c r="E12" s="190" t="s">
+      <c r="E12" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -9688,31 +9681,31 @@
       <c r="H12" s="13"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="213" t="s">
+      <c r="K12" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="28" t="s">
         <v>632</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="206"/>
-      <c r="R12" s="206"/>
-      <c r="S12" s="206"/>
+      <c r="P12" s="204"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="204"/>
+      <c r="S12" s="204"/>
     </row>
     <row r="13">
-      <c r="A13" s="211" t="s">
+      <c r="A13" s="209" t="s">
         <v>633</v>
       </c>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="182" t="s">
         <v>634</v>
       </c>
-      <c r="C13" s="212" t="s">
+      <c r="C13" s="210" t="s">
         <v>625</v>
       </c>
-      <c r="E13" s="190" t="s">
+      <c r="E13" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F13" s="14" t="s">
@@ -9724,31 +9717,31 @@
       <c r="H13" s="13"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="213" t="s">
+      <c r="K13" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="28" t="s">
         <v>636</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="206"/>
-      <c r="Q13" s="206"/>
-      <c r="R13" s="206"/>
-      <c r="S13" s="206"/>
+      <c r="P13" s="204"/>
+      <c r="Q13" s="204"/>
+      <c r="R13" s="204"/>
+      <c r="S13" s="204"/>
     </row>
     <row r="14">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="183" t="s">
         <v>637</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="182" t="s">
         <v>638</v>
       </c>
-      <c r="C14" s="212" t="s">
+      <c r="C14" s="210" t="s">
         <v>621</v>
       </c>
-      <c r="E14" s="190" t="s">
+      <c r="E14" s="188" t="s">
         <v>178</v>
       </c>
       <c r="F14" s="14" t="s">
@@ -9760,68 +9753,68 @@
       <c r="H14" s="13"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="213">
+      <c r="K14" s="211">
         <v>7.0</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="63" t="s">
         <v>33</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="206"/>
-      <c r="Q14" s="206"/>
-      <c r="R14" s="206"/>
-      <c r="S14" s="206"/>
+      <c r="P14" s="204"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
     </row>
     <row r="15">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="183" t="s">
         <v>640</v>
       </c>
-      <c r="B15" s="215" t="s">
+      <c r="B15" s="213" t="s">
         <v>641</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="214" t="s">
         <v>625</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="190" t="s">
+      <c r="D15" s="215"/>
+      <c r="E15" s="188" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="218" t="s">
+      <c r="F15" s="216" t="s">
         <v>534</v>
       </c>
-      <c r="G15" s="219" t="s">
+      <c r="G15" s="217" t="s">
         <v>642</v>
       </c>
-      <c r="H15" s="220"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="214" t="s">
+      <c r="H15" s="218"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="219"/>
+      <c r="K15" s="212" t="s">
         <v>627</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="M15" s="221"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="222"/>
-      <c r="Q15" s="222"/>
-      <c r="R15" s="222"/>
-      <c r="S15" s="222"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="216"/>
+      <c r="P15" s="220"/>
+      <c r="Q15" s="220"/>
+      <c r="R15" s="220"/>
+      <c r="S15" s="220"/>
     </row>
     <row r="16">
-      <c r="A16" s="185" t="s">
+      <c r="A16" s="183" t="s">
         <v>644</v>
       </c>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="182" t="s">
         <v>630</v>
       </c>
-      <c r="C16" s="212" t="s">
+      <c r="C16" s="210" t="s">
         <v>625</v>
       </c>
-      <c r="E16" s="190" t="s">
+      <c r="E16" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="14" t="s">
@@ -9833,31 +9826,31 @@
       <c r="H16" s="13"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="213" t="s">
+      <c r="K16" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="28" t="s">
         <v>646</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="206"/>
-      <c r="R16" s="206"/>
-      <c r="S16" s="206"/>
+      <c r="P16" s="204"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="204"/>
+      <c r="S16" s="204"/>
     </row>
     <row r="17">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="183" t="s">
         <v>647</v>
       </c>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="182" t="s">
         <v>634</v>
       </c>
-      <c r="C17" s="212" t="s">
+      <c r="C17" s="210" t="s">
         <v>625</v>
       </c>
-      <c r="E17" s="190" t="s">
+      <c r="E17" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -9869,105 +9862,105 @@
       <c r="H17" s="13"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="213" t="s">
+      <c r="K17" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="28" t="s">
         <v>649</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="206"/>
-      <c r="R17" s="206"/>
-      <c r="S17" s="206"/>
+      <c r="P17" s="204"/>
+      <c r="Q17" s="204"/>
+      <c r="R17" s="204"/>
+      <c r="S17" s="204"/>
     </row>
     <row r="18">
-      <c r="A18" s="211" t="s">
+      <c r="A18" s="209" t="s">
         <v>650</v>
       </c>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="221" t="s">
         <v>651</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="214" t="s">
         <v>621</v>
       </c>
-      <c r="D18" s="217"/>
-      <c r="E18" s="190" t="s">
+      <c r="D18" s="215"/>
+      <c r="E18" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="218" t="s">
+      <c r="F18" s="216" t="s">
         <v>537</v>
       </c>
-      <c r="G18" s="219" t="s">
+      <c r="G18" s="217" t="s">
         <v>652</v>
       </c>
-      <c r="H18" s="220"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="224">
+      <c r="H18" s="218"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="222">
         <v>7.0</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="221"/>
-      <c r="N18" s="221"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="222"/>
-      <c r="Q18" s="222"/>
-      <c r="R18" s="222"/>
-      <c r="S18" s="222"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="216"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="220"/>
+      <c r="S18" s="220"/>
     </row>
     <row r="19">
-      <c r="A19" s="211" t="s">
+      <c r="A19" s="209" t="s">
         <v>653</v>
       </c>
-      <c r="B19" s="223" t="s">
+      <c r="B19" s="221" t="s">
         <v>654</v>
       </c>
-      <c r="C19" s="216" t="s">
+      <c r="C19" s="214" t="s">
         <v>625</v>
       </c>
-      <c r="D19" s="217"/>
-      <c r="E19" s="190" t="s">
+      <c r="D19" s="215"/>
+      <c r="E19" s="188" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="218" t="s">
+      <c r="F19" s="216" t="s">
         <v>538</v>
       </c>
-      <c r="G19" s="219" t="s">
+      <c r="G19" s="217" t="s">
         <v>655</v>
       </c>
-      <c r="H19" s="220"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="214" t="s">
+      <c r="H19" s="218"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="212" t="s">
         <v>627</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="M19" s="221"/>
-      <c r="N19" s="221"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="222"/>
-      <c r="Q19" s="222"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="222"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="220"/>
+      <c r="Q19" s="220"/>
+      <c r="R19" s="220"/>
+      <c r="S19" s="220"/>
     </row>
     <row r="20">
-      <c r="A20" s="211" t="s">
+      <c r="A20" s="209" t="s">
         <v>657</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="182" t="s">
         <v>658</v>
       </c>
-      <c r="C20" s="212" t="s">
+      <c r="C20" s="210" t="s">
         <v>625</v>
       </c>
-      <c r="E20" s="190" t="s">
+      <c r="E20" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F20" s="14" t="s">
@@ -9979,31 +9972,31 @@
       <c r="H20" s="13"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="213" t="s">
+      <c r="K20" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="28" t="s">
         <v>660</v>
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="14"/>
-      <c r="P20" s="206"/>
-      <c r="Q20" s="206"/>
-      <c r="R20" s="206"/>
-      <c r="S20" s="206"/>
+      <c r="P20" s="204"/>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
     </row>
     <row r="21">
-      <c r="A21" s="211" t="s">
+      <c r="A21" s="209" t="s">
         <v>661</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="182" t="s">
         <v>662</v>
       </c>
-      <c r="C21" s="212" t="s">
+      <c r="C21" s="210" t="s">
         <v>625</v>
       </c>
-      <c r="E21" s="190" t="s">
+      <c r="E21" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F21" s="14" t="s">
@@ -10015,105 +10008,105 @@
       <c r="H21" s="13"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="213" t="s">
+      <c r="K21" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="28" t="s">
         <v>664</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="14"/>
-      <c r="P21" s="206"/>
-      <c r="Q21" s="206"/>
-      <c r="R21" s="206"/>
-      <c r="S21" s="206"/>
+      <c r="P21" s="204"/>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="204"/>
+      <c r="S21" s="204"/>
     </row>
     <row r="22">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="223" t="s">
         <v>665</v>
       </c>
-      <c r="B22" s="223" t="s">
+      <c r="B22" s="221" t="s">
         <v>666</v>
       </c>
-      <c r="C22" s="216" t="s">
+      <c r="C22" s="214" t="s">
         <v>621</v>
       </c>
-      <c r="D22" s="217"/>
-      <c r="E22" s="190" t="s">
+      <c r="D22" s="215"/>
+      <c r="E22" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="218" t="s">
+      <c r="F22" s="216" t="s">
         <v>541</v>
       </c>
-      <c r="G22" s="219" t="s">
+      <c r="G22" s="217" t="s">
         <v>667</v>
       </c>
-      <c r="H22" s="220"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="221"/>
-      <c r="K22" s="224">
+      <c r="H22" s="218"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="222">
         <v>7.0</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="221"/>
-      <c r="N22" s="221"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="222"/>
-      <c r="Q22" s="222"/>
-      <c r="R22" s="222"/>
-      <c r="S22" s="222"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="216"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="220"/>
+      <c r="S22" s="220"/>
     </row>
     <row r="23">
-      <c r="A23" s="225" t="s">
+      <c r="A23" s="223" t="s">
         <v>668</v>
       </c>
-      <c r="B23" s="223" t="s">
+      <c r="B23" s="221" t="s">
         <v>669</v>
       </c>
-      <c r="C23" s="216" t="s">
+      <c r="C23" s="214" t="s">
         <v>625</v>
       </c>
-      <c r="D23" s="217"/>
-      <c r="E23" s="190" t="s">
+      <c r="D23" s="215"/>
+      <c r="E23" s="188" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="218" t="s">
+      <c r="F23" s="216" t="s">
         <v>542</v>
       </c>
-      <c r="G23" s="219" t="s">
+      <c r="G23" s="217" t="s">
         <v>670</v>
       </c>
-      <c r="H23" s="220"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="214" t="s">
+      <c r="H23" s="218"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="212" t="s">
         <v>627</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="M23" s="221"/>
-      <c r="N23" s="221"/>
-      <c r="O23" s="218"/>
-      <c r="P23" s="222"/>
-      <c r="Q23" s="222"/>
-      <c r="R23" s="222"/>
-      <c r="S23" s="222"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="216"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="220"/>
+      <c r="S23" s="220"/>
     </row>
     <row r="24">
-      <c r="A24" s="225" t="s">
+      <c r="A24" s="223" t="s">
         <v>672</v>
       </c>
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="182" t="s">
         <v>673</v>
       </c>
-      <c r="C24" s="212" t="s">
+      <c r="C24" s="210" t="s">
         <v>625</v>
       </c>
-      <c r="E24" s="190" t="s">
+      <c r="E24" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F24" s="14" t="s">
@@ -10125,31 +10118,31 @@
       <c r="H24" s="13"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="213" t="s">
+      <c r="K24" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="28" t="s">
         <v>675</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="206"/>
-      <c r="R24" s="206"/>
-      <c r="S24" s="206"/>
+      <c r="P24" s="204"/>
+      <c r="Q24" s="204"/>
+      <c r="R24" s="204"/>
+      <c r="S24" s="204"/>
     </row>
     <row r="25">
-      <c r="A25" s="225" t="s">
+      <c r="A25" s="223" t="s">
         <v>676</v>
       </c>
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="182" t="s">
         <v>677</v>
       </c>
-      <c r="C25" s="212" t="s">
+      <c r="C25" s="210" t="s">
         <v>625</v>
       </c>
-      <c r="E25" s="190" t="s">
+      <c r="E25" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F25" s="14" t="s">
@@ -10161,105 +10154,105 @@
       <c r="H25" s="13"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="213" t="s">
+      <c r="K25" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="28" t="s">
         <v>679</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="206"/>
-      <c r="R25" s="206"/>
-      <c r="S25" s="206"/>
+      <c r="P25" s="204"/>
+      <c r="Q25" s="204"/>
+      <c r="R25" s="204"/>
+      <c r="S25" s="204"/>
     </row>
     <row r="26">
-      <c r="A26" s="223" t="s">
+      <c r="A26" s="221" t="s">
         <v>680</v>
       </c>
-      <c r="B26" s="223" t="s">
+      <c r="B26" s="221" t="s">
         <v>681</v>
       </c>
-      <c r="C26" s="216" t="s">
+      <c r="C26" s="214" t="s">
         <v>621</v>
       </c>
-      <c r="D26" s="217"/>
-      <c r="E26" s="190" t="s">
+      <c r="D26" s="215"/>
+      <c r="E26" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="218" t="s">
+      <c r="F26" s="216" t="s">
         <v>545</v>
       </c>
-      <c r="G26" s="219" t="s">
+      <c r="G26" s="217" t="s">
         <v>682</v>
       </c>
-      <c r="H26" s="220"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="224">
+      <c r="H26" s="218"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="222">
         <v>7.0</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="221"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="222"/>
-      <c r="Q26" s="222"/>
-      <c r="R26" s="222"/>
-      <c r="S26" s="222"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="216"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="220"/>
+      <c r="R26" s="220"/>
+      <c r="S26" s="220"/>
     </row>
     <row r="27">
-      <c r="A27" s="223" t="s">
+      <c r="A27" s="221" t="s">
         <v>683</v>
       </c>
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="221" t="s">
         <v>684</v>
       </c>
-      <c r="C27" s="216" t="s">
+      <c r="C27" s="214" t="s">
         <v>625</v>
       </c>
-      <c r="D27" s="217"/>
-      <c r="E27" s="190" t="s">
+      <c r="D27" s="215"/>
+      <c r="E27" s="188" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="218" t="s">
+      <c r="F27" s="216" t="s">
         <v>546</v>
       </c>
-      <c r="G27" s="219" t="s">
+      <c r="G27" s="217" t="s">
         <v>685</v>
       </c>
-      <c r="H27" s="220"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="214" t="s">
+      <c r="H27" s="218"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="212" t="s">
         <v>627</v>
       </c>
-      <c r="L27" s="223" t="s">
+      <c r="L27" s="221" t="s">
         <v>686</v>
       </c>
-      <c r="M27" s="221"/>
-      <c r="N27" s="221"/>
-      <c r="O27" s="218"/>
-      <c r="P27" s="222"/>
-      <c r="Q27" s="222"/>
-      <c r="R27" s="222"/>
-      <c r="S27" s="222"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="216"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="220"/>
+      <c r="S27" s="220"/>
     </row>
     <row r="28">
-      <c r="A28" s="223" t="s">
+      <c r="A28" s="221" t="s">
         <v>687</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>688</v>
       </c>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="224" t="s">
         <v>625</v>
       </c>
-      <c r="E28" s="190" t="s">
+      <c r="E28" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F28" s="14" t="s">
@@ -10271,31 +10264,31 @@
       <c r="H28" s="13"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="213" t="s">
+      <c r="K28" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="28" t="s">
         <v>690</v>
       </c>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="14"/>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="206"/>
-      <c r="S28" s="206"/>
+      <c r="P28" s="204"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
     </row>
     <row r="29">
-      <c r="A29" s="223" t="s">
+      <c r="A29" s="221" t="s">
         <v>691</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="C29" s="226" t="s">
+      <c r="C29" s="224" t="s">
         <v>625</v>
       </c>
-      <c r="E29" s="190" t="s">
+      <c r="E29" s="188" t="s">
         <v>171</v>
       </c>
       <c r="F29" s="14" t="s">
@@ -10307,37 +10300,37 @@
       <c r="H29" s="13"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="213" t="s">
+      <c r="K29" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="29" t="s">
+      <c r="L29" s="28" t="s">
         <v>694</v>
       </c>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="206"/>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="206"/>
-      <c r="S29" s="206"/>
+      <c r="P29" s="204"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
     </row>
     <row r="30">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>695</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>696</v>
       </c>
-      <c r="C30" s="212" t="s">
+      <c r="C30" s="210" t="s">
         <v>621</v>
       </c>
-      <c r="E30" s="190" t="s">
+      <c r="E30" s="188" t="s">
         <v>178</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="41" t="s">
         <v>697</v>
       </c>
       <c r="H30" s="13"/>
@@ -10346,571 +10339,571 @@
       <c r="K30" s="2">
         <v>0.0</v>
       </c>
-      <c r="L30" s="227" t="s">
+      <c r="L30" s="225" t="s">
         <v>71</v>
       </c>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="206"/>
-      <c r="Q30" s="206"/>
-      <c r="R30" s="206"/>
-      <c r="S30" s="206"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
     </row>
     <row r="31">
-      <c r="A31" s="228" t="s">
+      <c r="A31" s="226" t="s">
         <v>698</v>
       </c>
-      <c r="B31" s="228" t="s">
+      <c r="B31" s="226" t="s">
         <v>699</v>
       </c>
-      <c r="C31" s="229" t="s">
+      <c r="C31" s="227" t="s">
         <v>625</v>
       </c>
-      <c r="D31" s="230"/>
-      <c r="E31" s="231" t="s">
+      <c r="D31" s="228"/>
+      <c r="E31" s="229" t="s">
         <v>176</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="H31" s="59"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="213" t="s">
+      <c r="K31" s="211" t="s">
         <v>701</v>
       </c>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="28" t="s">
         <v>702</v>
       </c>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="206"/>
-      <c r="Q31" s="206"/>
-      <c r="R31" s="206"/>
-      <c r="S31" s="206"/>
+      <c r="P31" s="204"/>
+      <c r="Q31" s="204"/>
+      <c r="R31" s="204"/>
+      <c r="S31" s="204"/>
     </row>
     <row r="32">
-      <c r="A32" s="228" t="s">
+      <c r="A32" s="226" t="s">
         <v>703</v>
       </c>
-      <c r="B32" s="228" t="s">
+      <c r="B32" s="226" t="s">
         <v>704</v>
       </c>
-      <c r="C32" s="229" t="s">
+      <c r="C32" s="227" t="s">
         <v>621</v>
       </c>
-      <c r="D32" s="230"/>
-      <c r="E32" s="231" t="s">
+      <c r="D32" s="228"/>
+      <c r="E32" s="229" t="s">
         <v>178</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="41" t="s">
         <v>705</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="213">
+      <c r="K32" s="211">
         <v>0.0</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="28" t="s">
         <v>79</v>
       </c>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="206"/>
-      <c r="R32" s="206"/>
-      <c r="S32" s="206"/>
+      <c r="P32" s="204"/>
+      <c r="Q32" s="204"/>
+      <c r="R32" s="204"/>
+      <c r="S32" s="204"/>
     </row>
     <row r="33">
-      <c r="A33" s="228" t="s">
+      <c r="A33" s="226" t="s">
         <v>706</v>
       </c>
-      <c r="B33" s="228" t="s">
+      <c r="B33" s="226" t="s">
         <v>707</v>
       </c>
-      <c r="C33" s="229" t="s">
+      <c r="C33" s="227" t="s">
         <v>625</v>
       </c>
-      <c r="D33" s="230"/>
-      <c r="E33" s="231" t="s">
+      <c r="D33" s="228"/>
+      <c r="E33" s="229" t="s">
         <v>176</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="41" t="s">
         <v>700</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="213" t="s">
+      <c r="K33" s="211" t="s">
         <v>701</v>
       </c>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="28" t="s">
         <v>708</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="14"/>
-      <c r="P33" s="206"/>
-      <c r="Q33" s="206"/>
-      <c r="R33" s="206"/>
-      <c r="S33" s="206"/>
+      <c r="P33" s="204"/>
+      <c r="Q33" s="204"/>
+      <c r="R33" s="204"/>
+      <c r="S33" s="204"/>
     </row>
     <row r="34">
-      <c r="A34" s="228" t="s">
+      <c r="A34" s="226" t="s">
         <v>709</v>
       </c>
-      <c r="B34" s="232" t="s">
+      <c r="B34" s="230" t="s">
         <v>710</v>
       </c>
-      <c r="C34" s="229" t="s">
+      <c r="C34" s="227" t="s">
         <v>625</v>
       </c>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231" t="s">
+      <c r="D34" s="228"/>
+      <c r="E34" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="H34" s="59"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="213" t="s">
+      <c r="K34" s="211" t="s">
         <v>712</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="28" t="s">
         <v>713</v>
       </c>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="206"/>
-      <c r="Q34" s="206"/>
-      <c r="R34" s="206"/>
-      <c r="S34" s="206"/>
+      <c r="P34" s="204"/>
+      <c r="Q34" s="204"/>
+      <c r="R34" s="204"/>
+      <c r="S34" s="204"/>
     </row>
     <row r="35">
-      <c r="A35" s="228" t="s">
+      <c r="A35" s="226" t="s">
         <v>714</v>
       </c>
-      <c r="B35" s="232" t="s">
+      <c r="B35" s="230" t="s">
         <v>715</v>
       </c>
-      <c r="C35" s="229" t="s">
+      <c r="C35" s="227" t="s">
         <v>625</v>
       </c>
-      <c r="D35" s="230"/>
-      <c r="E35" s="231" t="s">
+      <c r="D35" s="228"/>
+      <c r="E35" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="H35" s="59"/>
+      <c r="H35" s="57"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="213" t="s">
+      <c r="K35" s="211" t="s">
         <v>712</v>
       </c>
-      <c r="L35" s="29" t="s">
+      <c r="L35" s="28" t="s">
         <v>716</v>
       </c>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="14"/>
-      <c r="P35" s="206"/>
-      <c r="Q35" s="206"/>
-      <c r="R35" s="206"/>
-      <c r="S35" s="206"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="204"/>
+      <c r="R35" s="204"/>
+      <c r="S35" s="204"/>
     </row>
     <row r="36">
-      <c r="A36" s="228" t="s">
+      <c r="A36" s="226" t="s">
         <v>717</v>
       </c>
-      <c r="B36" s="232" t="s">
+      <c r="B36" s="230" t="s">
         <v>718</v>
       </c>
-      <c r="C36" s="229" t="s">
+      <c r="C36" s="227" t="s">
         <v>625</v>
       </c>
-      <c r="D36" s="230"/>
-      <c r="E36" s="231" t="s">
+      <c r="D36" s="228"/>
+      <c r="E36" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="H36" s="59"/>
+      <c r="H36" s="57"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="213" t="s">
+      <c r="K36" s="211" t="s">
         <v>719</v>
       </c>
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="28" t="s">
         <v>720</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="14"/>
-      <c r="P36" s="206"/>
-      <c r="Q36" s="206"/>
-      <c r="R36" s="206"/>
-      <c r="S36" s="206"/>
+      <c r="P36" s="204"/>
+      <c r="Q36" s="204"/>
+      <c r="R36" s="204"/>
+      <c r="S36" s="204"/>
     </row>
     <row r="37">
-      <c r="A37" s="228" t="s">
+      <c r="A37" s="226" t="s">
         <v>721</v>
       </c>
-      <c r="B37" s="232" t="s">
+      <c r="B37" s="230" t="s">
         <v>722</v>
       </c>
-      <c r="C37" s="229" t="s">
+      <c r="C37" s="227" t="s">
         <v>625</v>
       </c>
-      <c r="D37" s="230"/>
-      <c r="E37" s="190" t="s">
+      <c r="D37" s="228"/>
+      <c r="E37" s="188" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="41" t="s">
         <v>723</v>
       </c>
-      <c r="H37" s="59"/>
+      <c r="H37" s="57"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="233" t="s">
+      <c r="K37" s="231" t="s">
         <v>724</v>
       </c>
-      <c r="L37" s="234" t="s">
+      <c r="L37" s="232" t="s">
         <v>725</v>
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="14"/>
-      <c r="P37" s="206"/>
-      <c r="Q37" s="206"/>
-      <c r="R37" s="206"/>
-      <c r="S37" s="206"/>
+      <c r="P37" s="204"/>
+      <c r="Q37" s="204"/>
+      <c r="R37" s="204"/>
+      <c r="S37" s="204"/>
     </row>
     <row r="38">
-      <c r="A38" s="234" t="s">
+      <c r="A38" s="232" t="s">
         <v>726</v>
       </c>
-      <c r="B38" s="234" t="s">
+      <c r="B38" s="232" t="s">
         <v>727</v>
       </c>
-      <c r="C38" s="235" t="s">
+      <c r="C38" s="233" t="s">
         <v>621</v>
       </c>
-      <c r="D38" s="236"/>
-      <c r="E38" s="237" t="s">
+      <c r="D38" s="234"/>
+      <c r="E38" s="235" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="238" t="s">
+      <c r="F38" s="236" t="s">
         <v>565</v>
       </c>
-      <c r="G38" s="238" t="s">
+      <c r="G38" s="236" t="s">
         <v>728</v>
       </c>
-      <c r="H38" s="239"/>
-      <c r="I38" s="240"/>
-      <c r="J38" s="240"/>
-      <c r="K38" s="233">
+      <c r="H38" s="237"/>
+      <c r="I38" s="238"/>
+      <c r="J38" s="238"/>
+      <c r="K38" s="231">
         <v>0.0</v>
       </c>
-      <c r="L38" s="234" t="s">
+      <c r="L38" s="232" t="s">
         <v>83</v>
       </c>
-      <c r="M38" s="240"/>
-      <c r="N38" s="240"/>
-      <c r="O38" s="238"/>
-      <c r="P38" s="241"/>
-      <c r="Q38" s="241"/>
-      <c r="R38" s="241"/>
-      <c r="S38" s="241"/>
+      <c r="M38" s="238"/>
+      <c r="N38" s="238"/>
+      <c r="O38" s="236"/>
+      <c r="P38" s="239"/>
+      <c r="Q38" s="239"/>
+      <c r="R38" s="239"/>
+      <c r="S38" s="239"/>
     </row>
     <row r="39">
-      <c r="A39" s="234" t="s">
+      <c r="A39" s="232" t="s">
         <v>729</v>
       </c>
-      <c r="B39" s="234" t="s">
+      <c r="B39" s="232" t="s">
         <v>730</v>
       </c>
-      <c r="C39" s="235" t="s">
+      <c r="C39" s="233" t="s">
         <v>625</v>
       </c>
-      <c r="D39" s="236"/>
-      <c r="E39" s="190" t="s">
+      <c r="D39" s="234"/>
+      <c r="E39" s="188" t="s">
         <v>171</v>
       </c>
-      <c r="F39" s="238" t="s">
+      <c r="F39" s="236" t="s">
         <v>566</v>
       </c>
-      <c r="G39" s="238" t="s">
+      <c r="G39" s="236" t="s">
         <v>731</v>
       </c>
-      <c r="H39" s="239"/>
-      <c r="I39" s="240"/>
-      <c r="J39" s="240"/>
-      <c r="K39" s="233" t="s">
+      <c r="H39" s="237"/>
+      <c r="I39" s="238"/>
+      <c r="J39" s="238"/>
+      <c r="K39" s="231" t="s">
         <v>724</v>
       </c>
-      <c r="L39" s="234" t="s">
+      <c r="L39" s="232" t="s">
         <v>725</v>
       </c>
-      <c r="M39" s="240"/>
-      <c r="N39" s="240"/>
-      <c r="O39" s="238"/>
-      <c r="P39" s="241"/>
-      <c r="Q39" s="241"/>
-      <c r="R39" s="241"/>
-      <c r="S39" s="241"/>
+      <c r="M39" s="238"/>
+      <c r="N39" s="238"/>
+      <c r="O39" s="236"/>
+      <c r="P39" s="239"/>
+      <c r="Q39" s="239"/>
+      <c r="R39" s="239"/>
+      <c r="S39" s="239"/>
     </row>
     <row r="40">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="C40" s="242" t="s">
+      <c r="C40" s="240" t="s">
         <v>621</v>
       </c>
-      <c r="D40" s="243"/>
-      <c r="E40" s="45" t="s">
+      <c r="D40" s="241"/>
+      <c r="E40" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="G40" s="244" t="s">
+      <c r="G40" s="242" t="s">
         <v>570</v>
       </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="245">
+      <c r="H40" s="52"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="243">
         <v>3.0</v>
       </c>
-      <c r="L40" s="45" t="s">
+      <c r="L40" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="246"/>
-      <c r="Q40" s="246"/>
-      <c r="R40" s="246"/>
-      <c r="S40" s="246"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="244"/>
+      <c r="Q40" s="244"/>
+      <c r="R40" s="244"/>
+      <c r="S40" s="244"/>
     </row>
     <row r="41">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="48" t="s">
         <v>734</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="C41" s="242" t="s">
+      <c r="C41" s="240" t="s">
         <v>625</v>
       </c>
-      <c r="D41" s="243"/>
-      <c r="E41" s="45" t="s">
+      <c r="D41" s="241"/>
+      <c r="E41" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="G41" s="244" t="s">
+      <c r="G41" s="242" t="s">
         <v>736</v>
       </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="245">
+      <c r="H41" s="52"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="243">
         <v>3.0</v>
       </c>
-      <c r="L41" s="45" t="s">
+      <c r="L41" s="44" t="s">
         <v>737</v>
       </c>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="246"/>
-      <c r="Q41" s="246"/>
-      <c r="R41" s="246"/>
-      <c r="S41" s="246"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="244"/>
+      <c r="Q41" s="244"/>
+      <c r="R41" s="244"/>
+      <c r="S41" s="244"/>
     </row>
     <row r="42">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>739</v>
       </c>
-      <c r="C42" s="242" t="s">
+      <c r="C42" s="240" t="s">
         <v>621</v>
       </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="45" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="H42" s="93"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="46">
+      <c r="H42" s="91"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="45">
         <v>3.0</v>
       </c>
-      <c r="L42" s="45" t="s">
+      <c r="L42" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="246"/>
-      <c r="Q42" s="246"/>
-      <c r="R42" s="246"/>
-      <c r="S42" s="246"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="244"/>
+      <c r="Q42" s="244"/>
+      <c r="R42" s="244"/>
+      <c r="S42" s="244"/>
     </row>
     <row r="43">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="49" t="s">
         <v>741</v>
       </c>
-      <c r="C43" s="242" t="s">
+      <c r="C43" s="240" t="s">
         <v>625</v>
       </c>
-      <c r="D43" s="243"/>
-      <c r="E43" s="45" t="s">
+      <c r="D43" s="241"/>
+      <c r="E43" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="G43" s="244" t="s">
+      <c r="G43" s="242" t="s">
         <v>736</v>
       </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="245">
+      <c r="H43" s="52"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="243">
         <v>3.0</v>
       </c>
-      <c r="L43" s="45" t="s">
+      <c r="L43" s="44" t="s">
         <v>742</v>
       </c>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="246"/>
-      <c r="Q43" s="246"/>
-      <c r="R43" s="246"/>
-      <c r="S43" s="246"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="244"/>
+      <c r="Q43" s="244"/>
+      <c r="R43" s="244"/>
+      <c r="S43" s="244"/>
     </row>
     <row r="44">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="48" t="s">
         <v>743</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="49" t="s">
         <v>744</v>
       </c>
-      <c r="C44" s="242" t="s">
+      <c r="C44" s="240" t="s">
         <v>625</v>
       </c>
-      <c r="D44" s="243"/>
-      <c r="E44" s="45" t="s">
+      <c r="D44" s="241"/>
+      <c r="E44" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="45" t="s">
         <v>736</v>
       </c>
-      <c r="G44" s="244" t="s">
+      <c r="G44" s="242" t="s">
         <v>745</v>
       </c>
-      <c r="H44" s="53"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="245" t="s">
+      <c r="H44" s="52"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="L44" s="49" t="s">
+      <c r="L44" s="48" t="s">
         <v>746</v>
       </c>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="246"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="246"/>
-      <c r="S44" s="246"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="244"/>
+      <c r="Q44" s="244"/>
+      <c r="R44" s="244"/>
+      <c r="S44" s="244"/>
     </row>
     <row r="45">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="48" t="s">
         <v>747</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="49" t="s">
         <v>748</v>
       </c>
-      <c r="C45" s="242" t="s">
+      <c r="C45" s="240" t="s">
         <v>625</v>
       </c>
-      <c r="D45" s="243"/>
-      <c r="E45" s="45" t="s">
+      <c r="D45" s="241"/>
+      <c r="E45" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="45" t="s">
         <v>736</v>
       </c>
-      <c r="G45" s="244" t="s">
+      <c r="G45" s="242" t="s">
         <v>749</v>
       </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="245" t="s">
+      <c r="H45" s="52"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="L45" s="227" t="s">
+      <c r="L45" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="246"/>
-      <c r="Q45" s="246"/>
-      <c r="R45" s="246"/>
-      <c r="S45" s="246"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="244"/>
+      <c r="Q45" s="244"/>
+      <c r="R45" s="244"/>
+      <c r="S45" s="244"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -10939,16 +10932,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="125" t="s">
         <v>750</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -10959,25 +10952,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="184" t="s">
         <v>700</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>753</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="184" t="s">
         <v>754</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>755</v>
       </c>
-      <c r="D3" s="186"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="209"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="207"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -10989,7 +10982,7 @@
       <c r="D4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="199" t="s">
         <v>612</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -10998,7 +10991,7 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="199" t="s">
         <v>616</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -11040,16 +11033,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="245" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="247" t="s">
+      <c r="C1" s="245" t="s">
         <v>575</v>
       </c>
-      <c r="D1" s="247" t="s">
+      <c r="D1" s="245" t="s">
         <v>759</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -11058,7 +11051,7 @@
       <c r="F1" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="G1" s="247" t="s">
+      <c r="G1" s="245" t="s">
         <v>526</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -11075,14 +11068,14 @@
       <c r="B2" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="249" t="str">
+      <c r="F2" s="247" t="str">
         <f>JOIN(",",A3:A7)</f>
         <v>neuron-1t5,neuron-1t6,neuron-1t7,neuron-1t8,neuron-1t9</v>
       </c>
-      <c r="G2" s="250"/>
+      <c r="G2" s="248"/>
       <c r="I2" s="2" t="s">
         <v>765</v>
       </c>
@@ -11094,9 +11087,9 @@
       <c r="B3" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="29"/>
-      <c r="G3" s="250"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="28"/>
+      <c r="G3" s="248"/>
       <c r="I3" s="2" t="s">
         <v>765</v>
       </c>
@@ -11108,10 +11101,10 @@
       <c r="B4" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="2"/>
-      <c r="G4" s="250"/>
+      <c r="G4" s="248"/>
       <c r="I4" s="2" t="s">
         <v>765</v>
       </c>
@@ -11123,10 +11116,10 @@
       <c r="B5" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="250"/>
+      <c r="G5" s="248"/>
       <c r="I5" s="2" t="s">
         <v>765</v>
       </c>
@@ -11138,10 +11131,10 @@
       <c r="B6" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C6" s="248"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="250"/>
+      <c r="G6" s="248"/>
       <c r="I6" s="2" t="s">
         <v>765</v>
       </c>
@@ -11153,10 +11146,10 @@
       <c r="B7" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="C7" s="248"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="250"/>
+      <c r="G7" s="248"/>
       <c r="I7" s="2" t="s">
         <v>765</v>
       </c>
@@ -11168,109 +11161,109 @@
       <c r="B8" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="250"/>
+      <c r="G8" s="248"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" ht="73.5" customHeight="1">
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="250"/>
+      <c r="G9" s="248"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" ht="73.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="250"/>
+      <c r="G10" s="248"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" ht="73.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="250"/>
+      <c r="G11" s="248"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" ht="73.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="2"/>
-      <c r="G12" s="250"/>
+      <c r="G12" s="248"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" ht="73.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="250"/>
+      <c r="G13" s="248"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" ht="73.5" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="2"/>
-      <c r="G14" s="250"/>
+      <c r="G14" s="248"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" ht="73.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="2"/>
-      <c r="G15" s="250"/>
+      <c r="G15" s="248"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" ht="73.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="250"/>
+      <c r="G16" s="248"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" ht="73.5" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="2"/>
-      <c r="G17" s="250"/>
+      <c r="G17" s="248"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" ht="73.5" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="250"/>
+      <c r="G18" s="248"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" ht="73.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="250"/>
+      <c r="G19" s="248"/>
       <c r="I19" s="2"/>
     </row>
   </sheetData>
@@ -11348,7 +11341,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="249" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -11362,8 +11355,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="252"/>
-      <c r="C2" s="253"/>
+      <c r="A2" s="250"/>
+      <c r="C2" s="251"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/models/pancreas/source/pancreas.xlsx
+++ b/models/pancreas/source/pancreas.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="816">
   <si>
     <t>id</t>
   </si>
@@ -81,7 +81,7 @@
     <t>pancreas</t>
   </si>
   <si>
-    <t>pancreas model</t>
+    <t>ApiNATOMY model of the pancreas</t>
   </si>
   <si>
     <t>pancr</t>
@@ -2398,9 +2398,6 @@
   </si>
   <si>
     <t>chain ordering</t>
-  </si>
-  <si>
-    <t>ApiNATOMY model of the pancreas</t>
   </si>
   <si>
     <t>Abbreviations</t>
@@ -3972,37 +3969,37 @@
         <v>9</v>
       </c>
       <c r="F1" s="252" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E2" s="253" t="s">
         <v>786</v>
-      </c>
-      <c r="E2" s="253" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="229" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E3" s="253" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4">
@@ -4040,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2">
@@ -4066,7 +4063,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4074,98 +4071,98 @@
     </row>
     <row r="2">
       <c r="A2" s="256" t="s">
+        <v>792</v>
+      </c>
+      <c r="B2" s="257" t="s">
         <v>793</v>
-      </c>
-      <c r="B2" s="257" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="256" t="s">
+        <v>794</v>
+      </c>
+      <c r="B3" s="258" t="s">
         <v>795</v>
-      </c>
-      <c r="B3" s="258" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="256" t="s">
+        <v>796</v>
+      </c>
+      <c r="B4" s="259" t="s">
         <v>797</v>
-      </c>
-      <c r="B4" s="259" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="256" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5" s="259" t="s">
         <v>799</v>
-      </c>
-      <c r="B5" s="259" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="256" t="s">
+        <v>800</v>
+      </c>
+      <c r="B6" s="259" t="s">
         <v>801</v>
-      </c>
-      <c r="B6" s="259" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="256" t="s">
+        <v>802</v>
+      </c>
+      <c r="B7" s="259" t="s">
         <v>803</v>
-      </c>
-      <c r="B7" s="259" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="256" t="s">
+        <v>804</v>
+      </c>
+      <c r="B8" s="259" t="s">
         <v>805</v>
-      </c>
-      <c r="B8" s="259" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="256" t="s">
+        <v>806</v>
+      </c>
+      <c r="B9" s="259" t="s">
         <v>807</v>
-      </c>
-      <c r="B9" s="259" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="256" t="s">
+        <v>808</v>
+      </c>
+      <c r="B10" s="259" t="s">
         <v>809</v>
-      </c>
-      <c r="B10" s="259" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="256" t="s">
+        <v>810</v>
+      </c>
+      <c r="B11" s="259" t="s">
         <v>811</v>
-      </c>
-      <c r="B11" s="259" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B12" s="260" t="s">
         <v>813</v>
-      </c>
-      <c r="B12" s="260" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="B13" s="261" t="s">
         <v>815</v>
-      </c>
-      <c r="B13" s="261" t="s">
-        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -11305,20 +11302,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>777</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -11348,10 +11345,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="2">

--- a/models/pancreas/source/pancreas.xlsx
+++ b/models/pancreas/source/pancreas.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="417">
   <si>
     <t>id</t>
   </si>
@@ -936,7 +936,7 @@
     <t>0,3,0</t>
   </si>
   <si>
-    <t>wbkg:lyph-PNS-ganglion-intrapancreatic,lyph-pancreatic-vasculature,wbkg:lyph-pancreatic-islet-of-langerhans</t>
+    <t>wbkg:lyph-PNS-ganglion-intrapancreatic,wbkg:lyph-pancreatic-acinus,wbkg:lyph-pancreatic-islet-of-langerhans</t>
   </si>
   <si>
     <t>dendrite-chain-interpancreatic-ganglia-islets-neuron-3</t>
@@ -955,9 +955,6 @@
   </si>
   <si>
     <t>con_isle3</t>
-  </si>
-  <si>
-    <t>wbkg:lyph-PNS-ganglion-intrapancreatic,wbkg:lyph-pancreatic-acinus,wbkg:lyph-pancreatic-islet-of-langerhans</t>
   </si>
   <si>
     <t>dendrite-chain-proximal-duodenum-neuron-4</t>
@@ -1638,7 +1635,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="209">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2035,6 +2032,9 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2044,6 +2044,9 @@
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="19" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -2057,6 +2060,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="19" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2073,6 +2079,9 @@
     </xf>
     <xf borderId="0" fillId="20" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="20" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2095,6 +2104,9 @@
     </xf>
     <xf borderId="0" fillId="20" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2567,50 +2579,50 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="193" t="s">
+      <c r="D1" s="198" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="193" t="s">
+      <c r="E1" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="193" t="s">
-        <v>378</v>
+      <c r="F1" s="198" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="200" t="s">
         <v>381</v>
-      </c>
-      <c r="E2" s="195" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" s="195" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="E3" s="200" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2634,18 +2646,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="196" t="s">
-        <v>386</v>
+      <c r="A1" s="201" t="s">
+        <v>385</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="197"/>
+      <c r="A2" s="202"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2667,130 +2679,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="203" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="204" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="199" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="203" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="198" t="s">
+      <c r="B3" s="205" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="200" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="203" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="198" t="s">
+      <c r="B4" s="206" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="201" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="203" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="198" t="s">
+      <c r="B5" s="206" t="s">
         <v>395</v>
       </c>
-      <c r="B5" s="201" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="203" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="198" t="s">
+      <c r="B6" s="206" t="s">
         <v>397</v>
       </c>
-      <c r="B6" s="201" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="203" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="198" t="s">
+      <c r="B7" s="206" t="s">
         <v>399</v>
       </c>
-      <c r="B7" s="201" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="203" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="198" t="s">
+      <c r="B8" s="206" t="s">
         <v>401</v>
       </c>
-      <c r="B8" s="201" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="203" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="198" t="s">
+      <c r="B9" s="206" t="s">
         <v>403</v>
       </c>
-      <c r="B9" s="201" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="203" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="198" t="s">
+      <c r="B10" s="206" t="s">
         <v>405</v>
       </c>
-      <c r="B10" s="201" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="203" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="198" t="s">
+      <c r="B11" s="206" t="s">
         <v>407</v>
-      </c>
-      <c r="B11" s="201" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" s="197" t="s">
         <v>409</v>
-      </c>
-      <c r="B12" s="192" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="207" t="s">
         <v>411</v>
-      </c>
-      <c r="B13" s="202" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="203" t="s">
-        <v>413</v>
+      <c r="B14" s="208" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="207" t="s">
         <v>414</v>
-      </c>
-      <c r="B15" s="202" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="207" t="s">
         <v>416</v>
-      </c>
-      <c r="B16" s="202" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -4793,7 +4805,7 @@
       <c r="A27" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="119" t="s">
         <v>254</v>
       </c>
       <c r="C27" s="102" t="s">
@@ -4829,10 +4841,10 @@
       <c r="A28" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="137" t="s">
         <v>198</v>
       </c>
       <c r="D28" s="26"/>
@@ -4842,10 +4854,10 @@
       <c r="F28" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="137" t="s">
+      <c r="G28" s="138" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="138"/>
+      <c r="H28" s="139"/>
       <c r="I28" s="54"/>
       <c r="J28" s="54"/>
       <c r="K28" s="121">
@@ -4866,10 +4878,10 @@
       <c r="A29" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="137" t="s">
         <v>193</v>
       </c>
       <c r="D29" s="26"/>
@@ -4903,10 +4915,10 @@
       <c r="A30" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="137" t="s">
         <v>198</v>
       </c>
       <c r="D30" s="26"/>
@@ -4916,7 +4928,7 @@
       <c r="F30" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="137" t="s">
+      <c r="G30" s="138" t="s">
         <v>258</v>
       </c>
       <c r="H30" s="16"/>
@@ -4940,32 +4952,32 @@
       <c r="A31" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="140" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="136" t="s">
+      <c r="C31" s="137" t="s">
         <v>198</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="137" t="s">
+      <c r="F31" s="138" t="s">
         <v>258</v>
       </c>
-      <c r="G31" s="139" t="s">
+      <c r="G31" s="141" t="s">
         <v>267</v>
       </c>
-      <c r="H31" s="138"/>
+      <c r="H31" s="139"/>
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
       <c r="K31" s="121" t="s">
         <v>268</v>
       </c>
-      <c r="L31" s="140" t="s">
+      <c r="L31" s="142" t="s">
         <v>269</v>
       </c>
-      <c r="M31" s="141"/>
+      <c r="M31" s="143"/>
       <c r="N31" s="54"/>
       <c r="O31" s="16"/>
       <c r="P31" s="95"/>
@@ -4977,29 +4989,29 @@
       <c r="A32" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="140" t="s">
         <v>271</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="137" t="s">
         <v>198</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="137" t="s">
+      <c r="F32" s="138" t="s">
         <v>258</v>
       </c>
-      <c r="G32" s="139" t="s">
+      <c r="G32" s="141" t="s">
         <v>267</v>
       </c>
-      <c r="H32" s="138"/>
+      <c r="H32" s="139"/>
       <c r="I32" s="54"/>
       <c r="J32" s="54"/>
       <c r="K32" s="121" t="s">
         <v>268</v>
       </c>
-      <c r="L32" s="140" t="s">
+      <c r="L32" s="142" t="s">
         <v>272</v>
       </c>
       <c r="M32" s="54"/>
@@ -5014,29 +5026,29 @@
       <c r="A33" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="140" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="137" t="s">
         <v>198</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="137" t="s">
+      <c r="F33" s="138" t="s">
         <v>258</v>
       </c>
-      <c r="G33" s="139" t="s">
+      <c r="G33" s="141" t="s">
         <v>267</v>
       </c>
-      <c r="H33" s="138"/>
+      <c r="H33" s="139"/>
       <c r="I33" s="54"/>
       <c r="J33" s="54"/>
       <c r="K33" s="121" t="s">
         <v>275</v>
       </c>
-      <c r="L33" s="140" t="s">
+      <c r="L33" s="142" t="s">
         <v>276</v>
       </c>
       <c r="M33" s="54"/>
@@ -5048,32 +5060,32 @@
       <c r="S33" s="95"/>
     </row>
     <row r="34">
-      <c r="A34" s="142" t="s">
+      <c r="A34" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="145" t="s">
         <v>278</v>
       </c>
       <c r="C34" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="143"/>
+      <c r="D34" s="146"/>
       <c r="E34" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F34" s="144" t="s">
+      <c r="F34" s="147" t="s">
         <v>267</v>
       </c>
-      <c r="G34" s="145" t="s">
+      <c r="G34" s="148" t="s">
         <v>279</v>
       </c>
-      <c r="H34" s="145"/>
+      <c r="H34" s="148"/>
       <c r="I34" s="54"/>
       <c r="J34" s="54"/>
-      <c r="K34" s="146">
+      <c r="K34" s="149">
         <v>0.0</v>
       </c>
-      <c r="L34" s="138" t="s">
+      <c r="L34" s="139" t="s">
         <v>55</v>
       </c>
       <c r="M34" s="54"/>
@@ -5085,32 +5097,32 @@
       <c r="S34" s="54"/>
     </row>
     <row r="35">
-      <c r="A35" s="142" t="s">
+      <c r="A35" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="B35" s="142" t="s">
+      <c r="B35" s="145" t="s">
         <v>281</v>
       </c>
       <c r="C35" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="D35" s="143"/>
+      <c r="D35" s="146"/>
       <c r="E35" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="144" t="s">
+      <c r="F35" s="147" t="s">
         <v>267</v>
       </c>
-      <c r="G35" s="145" t="s">
+      <c r="G35" s="148" t="s">
         <v>282</v>
       </c>
-      <c r="H35" s="145"/>
+      <c r="H35" s="148"/>
       <c r="I35" s="54"/>
       <c r="J35" s="54"/>
-      <c r="K35" s="147" t="s">
+      <c r="K35" s="150" t="s">
         <v>283</v>
       </c>
-      <c r="L35" s="138" t="s">
+      <c r="L35" s="21" t="s">
         <v>284</v>
       </c>
       <c r="M35" s="54"/>
@@ -5122,103 +5134,103 @@
       <c r="S35" s="54"/>
     </row>
     <row r="36">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="B36" s="148" t="s">
+      <c r="B36" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="C36" s="149" t="s">
+      <c r="C36" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="150"/>
-      <c r="E36" s="151" t="s">
+      <c r="D36" s="154"/>
+      <c r="E36" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="F36" s="152" t="s">
+      <c r="F36" s="156" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="152" t="s">
+      <c r="G36" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="H36" s="153"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="155">
+      <c r="H36" s="157"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
+      <c r="K36" s="159">
         <v>0.0</v>
       </c>
-      <c r="L36" s="148" t="s">
+      <c r="L36" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="M36" s="154"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="156"/>
-      <c r="Q36" s="156"/>
-      <c r="R36" s="156"/>
-      <c r="S36" s="156"/>
+      <c r="M36" s="158"/>
+      <c r="N36" s="158"/>
+      <c r="O36" s="156"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="160"/>
+      <c r="S36" s="160"/>
     </row>
     <row r="37">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="151" t="s">
         <v>288</v>
       </c>
-      <c r="B37" s="148" t="s">
+      <c r="B37" s="152" t="s">
         <v>289</v>
       </c>
-      <c r="C37" s="149" t="s">
+      <c r="C37" s="153" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="150"/>
-      <c r="E37" s="151" t="s">
+      <c r="D37" s="154"/>
+      <c r="E37" s="155" t="s">
         <v>246</v>
       </c>
-      <c r="F37" s="152" t="s">
+      <c r="F37" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="152" t="s">
+      <c r="G37" s="156" t="s">
         <v>290</v>
       </c>
-      <c r="H37" s="153"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="155" t="s">
+      <c r="H37" s="157"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="159" t="s">
         <v>283</v>
       </c>
-      <c r="L37" s="148" t="s">
-        <v>291</v>
-      </c>
-      <c r="M37" s="154"/>
-      <c r="N37" s="154"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="156"/>
-      <c r="R37" s="156"/>
-      <c r="S37" s="156"/>
+      <c r="L37" s="151" t="s">
+        <v>284</v>
+      </c>
+      <c r="M37" s="158"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="160"/>
+      <c r="R37" s="160"/>
+      <c r="S37" s="160"/>
     </row>
     <row r="38">
       <c r="A38" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" s="161" t="s">
         <v>292</v>
       </c>
-      <c r="B38" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="157" t="s">
+      <c r="C38" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="158"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="73" t="s">
         <v>194</v>
       </c>
       <c r="F38" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="159" t="s">
-        <v>294</v>
-      </c>
-      <c r="H38" s="160"/>
+      <c r="G38" s="164" t="s">
+        <v>293</v>
+      </c>
+      <c r="H38" s="165"/>
       <c r="I38" s="70"/>
       <c r="J38" s="70"/>
-      <c r="K38" s="161">
+      <c r="K38" s="166">
         <v>5.0</v>
       </c>
       <c r="L38" s="49" t="s">
@@ -5227,56 +5239,56 @@
       <c r="M38" s="70"/>
       <c r="N38" s="70"/>
       <c r="O38" s="68"/>
-      <c r="P38" s="162"/>
-      <c r="Q38" s="162"/>
-      <c r="R38" s="162"/>
-      <c r="S38" s="162"/>
+      <c r="P38" s="167"/>
+      <c r="Q38" s="167"/>
+      <c r="R38" s="167"/>
+      <c r="S38" s="167"/>
     </row>
     <row r="39">
       <c r="A39" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" s="161" t="s">
         <v>295</v>
       </c>
-      <c r="B39" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="C39" s="157" t="s">
+      <c r="C39" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="158"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="73" t="s">
         <v>199</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="159" t="s">
-        <v>297</v>
-      </c>
-      <c r="H39" s="160"/>
+      <c r="G39" s="164" t="s">
+        <v>296</v>
+      </c>
+      <c r="H39" s="165"/>
       <c r="I39" s="70"/>
       <c r="J39" s="70"/>
-      <c r="K39" s="161" t="s">
+      <c r="K39" s="166" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" s="73" t="s">
         <v>298</v>
-      </c>
-      <c r="L39" s="73" t="s">
-        <v>299</v>
       </c>
       <c r="M39" s="70"/>
       <c r="N39" s="70"/>
       <c r="O39" s="68"/>
-      <c r="P39" s="162"/>
-      <c r="Q39" s="162"/>
-      <c r="R39" s="162"/>
-      <c r="S39" s="162"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="167"/>
+      <c r="R39" s="167"/>
+      <c r="S39" s="167"/>
     </row>
     <row r="40">
       <c r="A40" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="161" t="s">
         <v>300</v>
       </c>
-      <c r="B40" s="72" t="s">
-        <v>301</v>
-      </c>
-      <c r="C40" s="157" t="s">
+      <c r="C40" s="162" t="s">
         <v>193</v>
       </c>
       <c r="D40" s="70"/>
@@ -5287,10 +5299,10 @@
         <v>134</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>302</v>
-      </c>
-      <c r="H40" s="163"/>
-      <c r="I40" s="164"/>
+        <v>301</v>
+      </c>
+      <c r="H40" s="168"/>
+      <c r="I40" s="169"/>
       <c r="J40" s="70"/>
       <c r="K40" s="68">
         <v>6.0</v>
@@ -5301,72 +5313,72 @@
       <c r="M40" s="70"/>
       <c r="N40" s="70"/>
       <c r="O40" s="68"/>
-      <c r="P40" s="162"/>
-      <c r="Q40" s="162"/>
-      <c r="R40" s="162"/>
-      <c r="S40" s="162"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="167"/>
     </row>
     <row r="41">
       <c r="A41" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" s="161" t="s">
         <v>303</v>
       </c>
-      <c r="B41" s="72" t="s">
-        <v>304</v>
-      </c>
-      <c r="C41" s="157" t="s">
+      <c r="C41" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="158"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="73" t="s">
         <v>199</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="159" t="s">
-        <v>297</v>
-      </c>
-      <c r="H41" s="160"/>
+      <c r="G41" s="164" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" s="165"/>
       <c r="I41" s="70"/>
       <c r="J41" s="70"/>
-      <c r="K41" s="161" t="s">
+      <c r="K41" s="166" t="s">
+        <v>304</v>
+      </c>
+      <c r="L41" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="L41" s="73" t="s">
-        <v>306</v>
       </c>
       <c r="M41" s="70"/>
       <c r="N41" s="70"/>
       <c r="O41" s="68"/>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="162"/>
-      <c r="R41" s="162"/>
-      <c r="S41" s="162"/>
+      <c r="P41" s="167"/>
+      <c r="Q41" s="167"/>
+      <c r="R41" s="167"/>
+      <c r="S41" s="167"/>
     </row>
     <row r="42">
       <c r="A42" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="161" t="s">
         <v>307</v>
       </c>
-      <c r="B42" s="72" t="s">
-        <v>308</v>
-      </c>
-      <c r="C42" s="157" t="s">
+      <c r="C42" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="158"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="73" t="s">
         <v>246</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="G42" s="159" t="s">
-        <v>309</v>
-      </c>
-      <c r="H42" s="160"/>
+        <v>296</v>
+      </c>
+      <c r="G42" s="164" t="s">
+        <v>308</v>
+      </c>
+      <c r="H42" s="165"/>
       <c r="I42" s="70"/>
       <c r="J42" s="70"/>
-      <c r="K42" s="161">
+      <c r="K42" s="166">
         <v>0.0</v>
       </c>
       <c r="L42" s="135" t="s">
@@ -5375,54 +5387,54 @@
       <c r="M42" s="70"/>
       <c r="N42" s="70"/>
       <c r="O42" s="68"/>
-      <c r="P42" s="162"/>
-      <c r="Q42" s="162"/>
-      <c r="R42" s="162"/>
-      <c r="S42" s="162"/>
+      <c r="P42" s="167"/>
+      <c r="Q42" s="167"/>
+      <c r="R42" s="167"/>
+      <c r="S42" s="167"/>
     </row>
     <row r="43">
       <c r="A43" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="161" t="s">
         <v>310</v>
       </c>
-      <c r="B43" s="72" t="s">
-        <v>311</v>
-      </c>
-      <c r="C43" s="157" t="s">
+      <c r="C43" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="158"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="73" t="s">
         <v>246</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="G43" s="159" t="s">
-        <v>312</v>
-      </c>
-      <c r="H43" s="160"/>
+        <v>296</v>
+      </c>
+      <c r="G43" s="164" t="s">
+        <v>311</v>
+      </c>
+      <c r="H43" s="165"/>
       <c r="I43" s="70"/>
       <c r="J43" s="70"/>
-      <c r="K43" s="161" t="s">
+      <c r="K43" s="166" t="s">
+        <v>312</v>
+      </c>
+      <c r="L43" s="67" t="s">
         <v>313</v>
-      </c>
-      <c r="L43" s="67" t="s">
-        <v>314</v>
       </c>
       <c r="M43" s="70"/>
       <c r="N43" s="70"/>
       <c r="O43" s="68"/>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="162"/>
-      <c r="R43" s="162"/>
-      <c r="S43" s="162"/>
+      <c r="P43" s="167"/>
+      <c r="Q43" s="167"/>
+      <c r="R43" s="167"/>
+      <c r="S43" s="167"/>
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" s="140" t="s">
         <v>315</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>316</v>
       </c>
       <c r="C44" s="92" t="s">
         <v>193</v>
@@ -5434,32 +5446,32 @@
       <c r="F44" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="165" t="s">
-        <v>317</v>
-      </c>
-      <c r="H44" s="138"/>
+      <c r="G44" s="170" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" s="139"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
-      <c r="K44" s="147">
+      <c r="K44" s="150">
         <v>0.0</v>
       </c>
-      <c r="L44" s="166" t="s">
+      <c r="L44" s="171" t="s">
         <v>67</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="22"/>
-      <c r="P44" s="167"/>
-      <c r="Q44" s="167"/>
-      <c r="R44" s="167"/>
-      <c r="S44" s="167"/>
+      <c r="P44" s="172"/>
+      <c r="Q44" s="172"/>
+      <c r="R44" s="172"/>
+      <c r="S44" s="172"/>
     </row>
     <row r="45">
       <c r="A45" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B45" s="140" t="s">
         <v>318</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>319</v>
       </c>
       <c r="C45" s="92" t="s">
         <v>198</v>
@@ -5471,25 +5483,25 @@
       <c r="F45" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="165" t="s">
-        <v>320</v>
-      </c>
-      <c r="H45" s="138"/>
+      <c r="G45" s="170" t="s">
+        <v>319</v>
+      </c>
+      <c r="H45" s="139"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="147" t="s">
+      <c r="K45" s="150" t="s">
+        <v>320</v>
+      </c>
+      <c r="L45" s="171" t="s">
         <v>321</v>
-      </c>
-      <c r="L45" s="166" t="s">
-        <v>322</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
       <c r="O45" s="22"/>
-      <c r="P45" s="167"/>
-      <c r="Q45" s="167"/>
-      <c r="R45" s="167"/>
-      <c r="S45" s="167"/>
+      <c r="P45" s="172"/>
+      <c r="Q45" s="172"/>
+      <c r="R45" s="172"/>
+      <c r="S45" s="172"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -5517,236 +5529,236 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="168" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="169" t="s">
+      <c r="A1" s="173" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="174" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="175" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="G1" s="175"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="176" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="170"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="171" t="s">
+      <c r="B2" s="177" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="C2" s="178" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="173" t="s">
+      <c r="D2" s="168" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="E2" s="177" t="s">
         <v>329</v>
-      </c>
-      <c r="E2" s="172" t="s">
-        <v>330</v>
       </c>
       <c r="F2" s="70"/>
       <c r="G2" s="70"/>
     </row>
     <row r="3">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="179" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="180" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="C3" s="181" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="176" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="173"/>
+      <c r="D3" s="178"/>
       <c r="E3" s="70"/>
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
     </row>
     <row r="4">
-      <c r="A4" s="177"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="179"/>
+      <c r="A4" s="182"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
     </row>
     <row r="5">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="182"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="187"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="187"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="180"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="182"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="187"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="180"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="182"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="187"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="180"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="182"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="180"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="180"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="180"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="182"/>
+      <c r="A12" s="185"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="180"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
+      <c r="A13" s="185"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="180"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182"/>
+      <c r="A14" s="185"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="180"/>
-      <c r="B15" s="180"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
+      <c r="A15" s="185"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="187"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="180"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="182"/>
+      <c r="A16" s="185"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="187"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="180"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
+      <c r="A17" s="185"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="187"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="180"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="180"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
+      <c r="A19" s="185"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="180"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="187"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
     <row r="21">
-      <c r="A21" s="180"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
+      <c r="A21" s="185"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="187"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
     <row r="22">
-      <c r="A22" s="180"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="187"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
     </row>
     <row r="23">
-      <c r="A23" s="180"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -5779,25 +5791,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="183" t="s">
+      <c r="D1" s="188" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G1" s="183" t="s">
+      <c r="G1" s="188" t="s">
         <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -5807,7 +5819,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" ht="73.5" customHeight="1">
@@ -5815,17 +5827,17 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="184"/>
+        <v>337</v>
+      </c>
+      <c r="C2" s="189"/>
       <c r="D2" s="64"/>
       <c r="E2" s="2"/>
-      <c r="G2" s="185"/>
+      <c r="G2" s="190"/>
       <c r="I2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="191" t="s">
         <v>339</v>
-      </c>
-      <c r="J2" s="186" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1">
@@ -5833,17 +5845,17 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="2"/>
-      <c r="G3" s="185"/>
+      <c r="G3" s="190"/>
       <c r="I3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="4" ht="73.5" customHeight="1">
@@ -5851,14 +5863,14 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
       <c r="E4" s="2"/>
-      <c r="G4" s="185"/>
+      <c r="G4" s="190"/>
       <c r="I4" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -5867,17 +5879,17 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="185"/>
+      <c r="G5" s="190"/>
       <c r="I5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" ht="73.5" customHeight="1">
@@ -5885,46 +5897,46 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="185"/>
+      <c r="G6" s="190"/>
       <c r="I6" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J6" s="116"/>
     </row>
     <row r="7" ht="73.5" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="192" t="s">
         <v>352</v>
-      </c>
-      <c r="C7" s="187" t="s">
-        <v>353</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="185"/>
+      <c r="G7" s="190"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" ht="73.5" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="192"/>
+      <c r="D8" s="193" t="s">
         <v>355</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="188" t="s">
-        <v>356</v>
-      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="185"/>
+      <c r="G8" s="190"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
@@ -5962,42 +5974,42 @@
         <v>8</v>
       </c>
       <c r="D1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="194" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="189" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="64"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="189"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="189" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="194"/>
       <c r="E3" s="64"/>
       <c r="F3" s="98"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" s="54"/>
     </row>
@@ -6006,7 +6018,7 @@
         <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D5" s="54"/>
     </row>
@@ -6015,7 +6027,7 @@
         <v>187</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D6" s="54"/>
     </row>
@@ -6024,7 +6036,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D7" s="54"/>
     </row>
@@ -6043,30 +6055,30 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col customWidth="1" min="1" max="1" width="15.88"/>
     <col customWidth="1" min="3" max="3" width="33.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="196" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="191" t="s">
+      <c r="C2" s="197" t="s">
         <v>368</v>
-      </c>
-      <c r="C2" s="192" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -6094,16 +6106,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="4">
@@ -6111,20 +6123,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/models/pancreas/source/pancreas.xlsx
+++ b/models/pancreas/source/pancreas.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="418">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>namespace</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
   </si>
   <si>
     <t>imports</t>
@@ -1188,7 +1191,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>PMID: 30842720</t>
+    <t>PMID:30842720</t>
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/30842720/</t>
@@ -1342,7 +1345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1454,11 +1457,6 @@
       <b/>
       <color theme="1"/>
       <name val="Droid Sans Mono"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF212121"/>
-      <name val="BlinkMacSystemFont"/>
     </font>
     <font>
       <u/>
@@ -1635,7 +1633,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="208">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2208,10 +2206,7 @@
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2232,19 +2227,19 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2520,8 +2515,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.63"/>
     <col customWidth="1" min="2" max="2" width="12.5"/>
-    <col customWidth="1" min="3" max="3" width="17.0"/>
-    <col customWidth="1" min="4" max="4" width="87.25"/>
+    <col customWidth="1" min="3" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="5" width="87.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2537,24 +2532,30 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId1" ref="E2"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2579,50 +2580,50 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="199" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="198" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="198" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="198" t="s">
-        <v>377</v>
+      <c r="C1" s="198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="197" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="197" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E2" s="200" t="s">
         <v>381</v>
+      </c>
+      <c r="E2" s="199" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="74" t="s">
-        <v>384</v>
-      </c>
-      <c r="E3" s="200" t="s">
-        <v>381</v>
+        <v>385</v>
+      </c>
+      <c r="E3" s="199" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2646,18 +2647,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="201" t="s">
-        <v>385</v>
+      <c r="A1" s="200" t="s">
+        <v>386</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="202"/>
+      <c r="A2" s="201"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2679,130 +2680,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="203" t="s">
-        <v>388</v>
-      </c>
-      <c r="B2" s="204" t="s">
+      <c r="A2" s="202" t="s">
         <v>389</v>
       </c>
+      <c r="B2" s="203" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="203" t="s">
-        <v>390</v>
-      </c>
-      <c r="B3" s="205" t="s">
+      <c r="A3" s="202" t="s">
         <v>391</v>
       </c>
+      <c r="B3" s="204" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="203" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" s="206" t="s">
+      <c r="A4" s="202" t="s">
         <v>393</v>
       </c>
+      <c r="B4" s="205" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="203" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5" s="206" t="s">
+      <c r="A5" s="202" t="s">
         <v>395</v>
       </c>
+      <c r="B5" s="205" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="203" t="s">
-        <v>396</v>
-      </c>
-      <c r="B6" s="206" t="s">
+      <c r="A6" s="202" t="s">
         <v>397</v>
       </c>
+      <c r="B6" s="205" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="203" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7" s="206" t="s">
+      <c r="A7" s="202" t="s">
         <v>399</v>
       </c>
+      <c r="B7" s="205" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="203" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" s="206" t="s">
+      <c r="A8" s="202" t="s">
         <v>401</v>
       </c>
+      <c r="B8" s="205" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="203" t="s">
-        <v>402</v>
-      </c>
-      <c r="B9" s="206" t="s">
+      <c r="A9" s="202" t="s">
         <v>403</v>
       </c>
+      <c r="B9" s="205" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="203" t="s">
-        <v>404</v>
-      </c>
-      <c r="B10" s="206" t="s">
+      <c r="A10" s="202" t="s">
         <v>405</v>
       </c>
+      <c r="B10" s="205" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="203" t="s">
-        <v>406</v>
-      </c>
-      <c r="B11" s="206" t="s">
+      <c r="A11" s="202" t="s">
         <v>407</v>
+      </c>
+      <c r="B11" s="205" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B12" s="197" t="s">
         <v>409</v>
+      </c>
+      <c r="B12" s="196" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="B13" s="207" t="s">
         <v>411</v>
+      </c>
+      <c r="B13" s="206" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="208" t="s">
-        <v>412</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="207" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="B15" s="207" t="s">
         <v>414</v>
+      </c>
+      <c r="B15" s="206" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="56" t="s">
-        <v>415</v>
-      </c>
-      <c r="B16" s="207" t="s">
         <v>416</v>
+      </c>
+      <c r="B16" s="206" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -2861,75 +2862,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -2938,11 +2939,11 @@
       <c r="H2" s="20"/>
       <c r="I2" s="22"/>
       <c r="J2" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="25">
         <v>6.0</v>
@@ -2957,18 +2958,18 @@
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -2977,17 +2978,17 @@
       <c r="H3" s="20"/>
       <c r="I3" s="22"/>
       <c r="J3" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="26"/>
@@ -2999,13 +3000,13 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -3014,17 +3015,17 @@
       <c r="H4" s="20"/>
       <c r="I4" s="22"/>
       <c r="J4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="26"/>
@@ -3036,13 +3037,13 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -3051,17 +3052,17 @@
       <c r="H5" s="20"/>
       <c r="I5" s="22"/>
       <c r="J5" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="26"/>
@@ -3073,13 +3074,13 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -3088,11 +3089,11 @@
       <c r="H6" s="20"/>
       <c r="I6" s="22"/>
       <c r="J6" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="29">
         <v>6.0</v>
@@ -3110,13 +3111,13 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -3125,11 +3126,11 @@
       <c r="H7" s="20"/>
       <c r="I7" s="22"/>
       <c r="J7" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="31">
         <v>0.0</v>
@@ -3144,18 +3145,18 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -3164,11 +3165,11 @@
       <c r="H8" s="20"/>
       <c r="I8" s="22"/>
       <c r="J8" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="31">
         <v>0.0</v>
@@ -3186,13 +3187,13 @@
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="35"/>
@@ -3201,17 +3202,17 @@
       <c r="H9" s="20"/>
       <c r="I9" s="22"/>
       <c r="J9" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="30"/>
@@ -3220,18 +3221,18 @@
       <c r="S9" s="32"/>
       <c r="T9" s="20"/>
       <c r="U9" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="39"/>
@@ -3240,11 +3241,11 @@
       <c r="H10" s="20"/>
       <c r="I10" s="22"/>
       <c r="J10" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="31">
         <v>5.0</v>
@@ -3259,18 +3260,18 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="39"/>
@@ -3279,11 +3280,11 @@
       <c r="H11" s="20"/>
       <c r="I11" s="22"/>
       <c r="J11" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="31">
         <v>6.0</v>
@@ -3301,13 +3302,13 @@
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="35"/>
@@ -3316,17 +3317,17 @@
       <c r="H12" s="20"/>
       <c r="I12" s="22"/>
       <c r="J12" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N12" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O12" s="38"/>
       <c r="P12" s="30"/>
@@ -3335,28 +3336,28 @@
       <c r="S12" s="32"/>
       <c r="T12" s="20"/>
       <c r="U12" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
@@ -3373,13 +3374,13 @@
     </row>
     <row r="14">
       <c r="A14" s="49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="22"/>
@@ -3387,7 +3388,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" s="36"/>
       <c r="K14" s="51"/>
@@ -3404,13 +3405,13 @@
     </row>
     <row r="15">
       <c r="A15" s="49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="22"/>
@@ -3418,7 +3419,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="51"/>
@@ -3435,13 +3436,13 @@
     </row>
     <row r="16">
       <c r="A16" s="52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="54"/>
       <c r="E16" s="16"/>
@@ -3452,7 +3453,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="55"/>
       <c r="L16" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="16">
         <v>0.0</v>
@@ -3468,13 +3469,13 @@
     </row>
     <row r="17">
       <c r="A17" s="52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="16"/>
@@ -3485,7 +3486,7 @@
       <c r="J17" s="56"/>
       <c r="K17" s="55"/>
       <c r="L17" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="16">
         <v>0.0</v>
@@ -3501,13 +3502,13 @@
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="16"/>
@@ -3518,7 +3519,7 @@
       <c r="J18" s="56"/>
       <c r="K18" s="55"/>
       <c r="L18" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M18" s="16">
         <v>0.0</v>
@@ -3572,226 +3573,226 @@
         <v>1</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="63"/>
       <c r="G2" s="54"/>
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="63"/>
       <c r="G3" s="54"/>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="54"/>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9">
       <c r="A9" s="66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="69"/>
       <c r="G9" s="70"/>
     </row>
     <row r="10">
       <c r="A10" s="71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="70"/>
     </row>
     <row r="11">
       <c r="A11" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="70"/>
     </row>
     <row r="12">
       <c r="A12" s="74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="70"/>
@@ -3844,46 +3845,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J1" s="75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L1" s="76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M1" s="58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N1" s="58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O1" s="58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P1" s="56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="56"/>
       <c r="R1" s="56"/>
@@ -3891,21 +3892,21 @@
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="81"/>
       <c r="F2" s="82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2" s="82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H2" s="78"/>
       <c r="I2" s="79"/>
@@ -3915,7 +3916,7 @@
       <c r="M2" s="79"/>
       <c r="N2" s="79"/>
       <c r="O2" s="78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P2" s="83" t="b">
         <v>1</v>
@@ -3926,35 +3927,35 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="84" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" s="86"/>
       <c r="D3" s="87"/>
       <c r="E3" s="84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" s="82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H3" s="77"/>
       <c r="I3" s="79"/>
       <c r="J3" s="79"/>
       <c r="K3" s="88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L3" s="82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M3" s="79"/>
       <c r="N3" s="79"/>
       <c r="O3" s="82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P3" s="83" t="b">
         <v>1</v>
@@ -3965,33 +3966,33 @@
     </row>
     <row r="4">
       <c r="A4" s="84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" s="87"/>
       <c r="C4" s="87"/>
       <c r="D4" s="87"/>
       <c r="E4" s="84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H4" s="87"/>
       <c r="I4" s="87"/>
       <c r="J4" s="87"/>
       <c r="K4" s="90" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L4" s="89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
       <c r="O4" s="82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P4" s="91" t="b">
         <v>1</v>
@@ -4002,28 +4003,28 @@
     </row>
     <row r="5">
       <c r="A5" s="84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B5" s="85"/>
       <c r="C5" s="86"/>
       <c r="D5" s="87"/>
       <c r="E5" s="84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" s="89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H5" s="77"/>
       <c r="I5" s="79"/>
       <c r="J5" s="79"/>
       <c r="K5" s="88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L5" s="82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M5" s="79"/>
       <c r="N5" s="79"/>
@@ -4035,28 +4036,28 @@
     </row>
     <row r="6">
       <c r="A6" s="84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6" s="85"/>
       <c r="C6" s="86"/>
       <c r="D6" s="87"/>
       <c r="E6" s="84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G6" s="82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H6" s="77"/>
       <c r="I6" s="79"/>
       <c r="J6" s="79"/>
       <c r="K6" s="88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L6" s="82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M6" s="79"/>
       <c r="N6" s="79"/>
@@ -4070,18 +4071,18 @@
     </row>
     <row r="7">
       <c r="A7" s="84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" s="65"/>
       <c r="C7" s="92"/>
       <c r="E7" s="84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H7" s="93"/>
       <c r="I7" s="79"/>
@@ -4090,12 +4091,12 @@
         <v>0.0</v>
       </c>
       <c r="L7" s="82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M7" s="79"/>
       <c r="N7" s="79"/>
       <c r="O7" s="82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P7" s="94"/>
       <c r="Q7" s="95"/>
@@ -4104,21 +4105,21 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="86"/>
       <c r="D8" s="87"/>
       <c r="E8" s="96" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H8" s="77"/>
       <c r="I8" s="79"/>
@@ -4127,12 +4128,12 @@
         <v>0.0</v>
       </c>
       <c r="L8" s="97" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M8" s="79"/>
       <c r="N8" s="79"/>
       <c r="O8" s="82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P8" s="91" t="b">
         <v>1</v>
@@ -4143,21 +4144,21 @@
     </row>
     <row r="9">
       <c r="A9" s="84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="87"/>
       <c r="E9" s="99" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H9" s="77"/>
       <c r="I9" s="79"/>
@@ -4166,12 +4167,12 @@
         <v>0.0</v>
       </c>
       <c r="L9" s="93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M9" s="79"/>
       <c r="N9" s="79"/>
       <c r="O9" s="82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P9" s="91" t="b">
         <v>1</v>
@@ -4182,22 +4183,22 @@
     </row>
     <row r="10">
       <c r="A10" s="100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="54"/>
@@ -4206,7 +4207,7 @@
         <v>6.0</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="54"/>
       <c r="N10" s="54"/>
@@ -4218,31 +4219,31 @@
     </row>
     <row r="11">
       <c r="A11" s="100" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
       <c r="K11" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M11" s="106"/>
       <c r="N11" s="54"/>
@@ -4254,22 +4255,22 @@
     </row>
     <row r="12">
       <c r="A12" s="107" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="54"/>
@@ -4278,7 +4279,7 @@
         <v>6.0</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -4290,32 +4291,32 @@
     </row>
     <row r="13">
       <c r="A13" s="107" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D13" s="110"/>
       <c r="E13" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F13" s="111" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G13" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H13" s="112"/>
       <c r="I13" s="113"/>
       <c r="J13" s="113"/>
       <c r="K13" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M13" s="113"/>
       <c r="N13" s="113"/>
@@ -4327,23 +4328,23 @@
     </row>
     <row r="14">
       <c r="A14" s="100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B14" s="115" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D14" s="110"/>
       <c r="E14" s="103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F14" s="111" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G14" s="116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H14" s="112"/>
       <c r="I14" s="113"/>
@@ -4352,7 +4353,7 @@
         <v>6.0</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="113"/>
       <c r="N14" s="113"/>
@@ -4364,32 +4365,32 @@
     </row>
     <row r="15">
       <c r="A15" s="100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B15" s="115" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D15" s="110"/>
       <c r="E15" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F15" s="111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H15" s="112"/>
       <c r="I15" s="113"/>
       <c r="J15" s="113"/>
       <c r="K15" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M15" s="113"/>
       <c r="N15" s="113"/>
@@ -4401,23 +4402,23 @@
     </row>
     <row r="16">
       <c r="A16" s="117" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B16" s="115" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D16" s="110"/>
       <c r="E16" s="103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F16" s="111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" s="116" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H16" s="112"/>
       <c r="I16" s="113"/>
@@ -4426,7 +4427,7 @@
         <v>6.0</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M16" s="113"/>
       <c r="N16" s="113"/>
@@ -4438,32 +4439,32 @@
     </row>
     <row r="17">
       <c r="A17" s="117" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D17" s="110"/>
       <c r="E17" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F17" s="111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H17" s="112"/>
       <c r="I17" s="113"/>
       <c r="J17" s="113"/>
       <c r="K17" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M17" s="113"/>
       <c r="N17" s="113"/>
@@ -4475,23 +4476,23 @@
     </row>
     <row r="18">
       <c r="A18" s="118" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B18" s="115" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C18" s="109" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D18" s="110"/>
       <c r="E18" s="103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F18" s="111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H18" s="112"/>
       <c r="I18" s="113"/>
@@ -4500,7 +4501,7 @@
         <v>6.0</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="113"/>
       <c r="N18" s="113"/>
@@ -4512,32 +4513,32 @@
     </row>
     <row r="19">
       <c r="A19" s="118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" s="115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" s="110"/>
       <c r="E19" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F19" s="111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H19" s="112"/>
       <c r="I19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" s="113"/>
       <c r="N19" s="113"/>
@@ -4549,31 +4550,31 @@
     </row>
     <row r="20">
       <c r="A20" s="117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" s="119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E20" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
       <c r="K20" s="121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" s="54"/>
       <c r="N20" s="54"/>
@@ -4585,31 +4586,31 @@
     </row>
     <row r="21">
       <c r="A21" s="117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E21" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
       <c r="K21" s="121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M21" s="54"/>
       <c r="N21" s="54"/>
@@ -4621,31 +4622,31 @@
     </row>
     <row r="22">
       <c r="A22" s="117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" s="119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="54"/>
       <c r="J22" s="54"/>
       <c r="K22" s="121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" s="54"/>
       <c r="N22" s="54"/>
@@ -4657,31 +4658,31 @@
     </row>
     <row r="23">
       <c r="A23" s="117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F23" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="54"/>
       <c r="J23" s="54"/>
       <c r="K23" s="121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" s="54"/>
       <c r="N23" s="54"/>
@@ -4693,31 +4694,31 @@
     </row>
     <row r="24">
       <c r="A24" s="117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" s="120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="54"/>
       <c r="J24" s="54"/>
       <c r="K24" s="121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M24" s="54"/>
       <c r="N24" s="54"/>
@@ -4729,32 +4730,32 @@
     </row>
     <row r="25">
       <c r="A25" s="122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" s="123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="124" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D25" s="125"/>
       <c r="E25" s="126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F25" s="127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G25" s="128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H25" s="129"/>
       <c r="I25" s="130"/>
       <c r="J25" s="130"/>
       <c r="K25" s="131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" s="132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M25" s="130"/>
       <c r="N25" s="130"/>
@@ -4766,32 +4767,32 @@
     </row>
     <row r="26">
       <c r="A26" s="122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" s="123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C26" s="124" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D26" s="125"/>
       <c r="E26" s="126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F26" s="127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G26" s="128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H26" s="129"/>
       <c r="I26" s="130"/>
       <c r="J26" s="130"/>
       <c r="K26" s="131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L26" s="132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M26" s="130"/>
       <c r="N26" s="130"/>
@@ -4803,22 +4804,22 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" s="119" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E27" s="103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="54"/>
@@ -4827,7 +4828,7 @@
         <v>0.0</v>
       </c>
       <c r="L27" s="135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="54"/>
       <c r="N27" s="54"/>
@@ -4839,23 +4840,23 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" s="136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G28" s="138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H28" s="139"/>
       <c r="I28" s="54"/>
@@ -4864,7 +4865,7 @@
         <v>0.0</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" s="54"/>
       <c r="N28" s="54"/>
@@ -4876,23 +4877,23 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B29" s="136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -4901,7 +4902,7 @@
         <v>0.0</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M29" s="54"/>
       <c r="N29" s="54"/>
@@ -4913,23 +4914,23 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" s="136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C30" s="137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G30" s="138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -4938,7 +4939,7 @@
         <v>0.0</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M30" s="54"/>
       <c r="N30" s="54"/>
@@ -4950,32 +4951,32 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" s="140" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C31" s="137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F31" s="138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G31" s="141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H31" s="139"/>
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
       <c r="K31" s="121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" s="142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" s="143"/>
       <c r="N31" s="54"/>
@@ -4987,32 +4988,32 @@
     </row>
     <row r="32">
       <c r="A32" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B32" s="140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F32" s="138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G32" s="141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H32" s="139"/>
       <c r="I32" s="54"/>
       <c r="J32" s="54"/>
       <c r="K32" s="121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L32" s="142" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M32" s="54"/>
       <c r="N32" s="54"/>
@@ -5024,32 +5025,32 @@
     </row>
     <row r="33">
       <c r="A33" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" s="140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C33" s="137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F33" s="138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G33" s="141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H33" s="139"/>
       <c r="I33" s="54"/>
       <c r="J33" s="54"/>
       <c r="K33" s="121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L33" s="142" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M33" s="54"/>
       <c r="N33" s="54"/>
@@ -5061,23 +5062,23 @@
     </row>
     <row r="34">
       <c r="A34" s="144" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" s="145" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C34" s="102" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D34" s="146"/>
       <c r="E34" s="52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F34" s="147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G34" s="148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H34" s="148"/>
       <c r="I34" s="54"/>
@@ -5086,7 +5087,7 @@
         <v>0.0</v>
       </c>
       <c r="L34" s="139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M34" s="54"/>
       <c r="N34" s="54"/>
@@ -5098,32 +5099,32 @@
     </row>
     <row r="35">
       <c r="A35" s="144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" s="145" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D35" s="146"/>
       <c r="E35" s="52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F35" s="147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H35" s="148"/>
       <c r="I35" s="54"/>
       <c r="J35" s="54"/>
       <c r="K35" s="150" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M35" s="54"/>
       <c r="N35" s="54"/>
@@ -5135,23 +5136,23 @@
     </row>
     <row r="36">
       <c r="A36" s="151" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" s="152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C36" s="153" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D36" s="154"/>
       <c r="E36" s="155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F36" s="156" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G36" s="156" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H36" s="157"/>
       <c r="I36" s="158"/>
@@ -5160,7 +5161,7 @@
         <v>0.0</v>
       </c>
       <c r="L36" s="151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M36" s="158"/>
       <c r="N36" s="158"/>
@@ -5172,32 +5173,32 @@
     </row>
     <row r="37">
       <c r="A37" s="151" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B37" s="152" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C37" s="153" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D37" s="154"/>
       <c r="E37" s="155" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F37" s="156" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G37" s="156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H37" s="157"/>
       <c r="I37" s="158"/>
       <c r="J37" s="158"/>
       <c r="K37" s="159" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L37" s="151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M37" s="158"/>
       <c r="N37" s="158"/>
@@ -5209,23 +5210,23 @@
     </row>
     <row r="38">
       <c r="A38" s="67" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B38" s="161" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C38" s="162" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D38" s="163"/>
       <c r="E38" s="73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G38" s="164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H38" s="165"/>
       <c r="I38" s="70"/>
@@ -5234,7 +5235,7 @@
         <v>5.0</v>
       </c>
       <c r="L38" s="49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M38" s="70"/>
       <c r="N38" s="70"/>
@@ -5246,32 +5247,32 @@
     </row>
     <row r="39">
       <c r="A39" s="67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39" s="161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C39" s="162" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D39" s="163"/>
       <c r="E39" s="73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G39" s="164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H39" s="165"/>
       <c r="I39" s="70"/>
       <c r="J39" s="70"/>
       <c r="K39" s="166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L39" s="73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M39" s="70"/>
       <c r="N39" s="70"/>
@@ -5283,23 +5284,23 @@
     </row>
     <row r="40">
       <c r="A40" s="67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B40" s="161" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C40" s="162" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D40" s="70"/>
       <c r="E40" s="73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H40" s="168"/>
       <c r="I40" s="169"/>
@@ -5308,7 +5309,7 @@
         <v>6.0</v>
       </c>
       <c r="L40" s="49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M40" s="70"/>
       <c r="N40" s="70"/>
@@ -5320,32 +5321,32 @@
     </row>
     <row r="41">
       <c r="A41" s="67" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B41" s="161" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C41" s="162" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D41" s="163"/>
       <c r="E41" s="73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G41" s="164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H41" s="165"/>
       <c r="I41" s="70"/>
       <c r="J41" s="70"/>
       <c r="K41" s="166" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L41" s="73" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M41" s="70"/>
       <c r="N41" s="70"/>
@@ -5357,23 +5358,23 @@
     </row>
     <row r="42">
       <c r="A42" s="67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B42" s="161" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C42" s="162" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D42" s="163"/>
       <c r="E42" s="73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G42" s="164" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H42" s="165"/>
       <c r="I42" s="70"/>
@@ -5382,7 +5383,7 @@
         <v>0.0</v>
       </c>
       <c r="L42" s="135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M42" s="70"/>
       <c r="N42" s="70"/>
@@ -5394,32 +5395,32 @@
     </row>
     <row r="43">
       <c r="A43" s="67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B43" s="161" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C43" s="162" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D43" s="163"/>
       <c r="E43" s="73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G43" s="164" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H43" s="165"/>
       <c r="I43" s="70"/>
       <c r="J43" s="70"/>
       <c r="K43" s="166" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L43" s="67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M43" s="70"/>
       <c r="N43" s="70"/>
@@ -5431,23 +5432,23 @@
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B44" s="140" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G44" s="170" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H44" s="139"/>
       <c r="I44" s="20"/>
@@ -5456,7 +5457,7 @@
         <v>0.0</v>
       </c>
       <c r="L44" s="171" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
@@ -5468,32 +5469,32 @@
     </row>
     <row r="45">
       <c r="A45" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B45" s="140" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G45" s="170" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H45" s="139"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="150" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L45" s="171" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
@@ -5530,7 +5531,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="173" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B1" s="174" t="s">
         <v>0</v>
@@ -5539,44 +5540,44 @@
         <v>1</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="175" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G1" s="175"/>
     </row>
     <row r="2">
       <c r="A2" s="176" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B2" s="177" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C2" s="178" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D2" s="168" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E2" s="177" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F2" s="70"/>
       <c r="G2" s="70"/>
     </row>
     <row r="3">
       <c r="A3" s="179" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B3" s="180" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C3" s="181" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D3" s="178"/>
       <c r="E3" s="70"/>
@@ -5798,125 +5799,125 @@
         <v>1</v>
       </c>
       <c r="C1" s="188" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="188" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G1" s="188" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C2" s="189"/>
       <c r="D2" s="64"/>
       <c r="E2" s="2"/>
       <c r="G2" s="190"/>
       <c r="I2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J2" s="191" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="2"/>
       <c r="G3" s="190"/>
       <c r="I3" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" ht="73.5" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
       <c r="E4" s="2"/>
       <c r="G4" s="190"/>
       <c r="I4" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" ht="73.5" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
       <c r="E5" s="2"/>
       <c r="G5" s="190"/>
       <c r="I5" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" ht="73.5" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="2"/>
       <c r="G6" s="190"/>
       <c r="I6" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J6" s="116"/>
     </row>
     <row r="7" ht="73.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C7" s="192" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="2"/>
@@ -5926,14 +5927,14 @@
     </row>
     <row r="8" ht="73.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C8" s="192"/>
       <c r="D8" s="193" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="190"/>
@@ -5971,34 +5972,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="194" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D2" s="194"/>
       <c r="E2" s="64"/>
     </row>
     <row r="3">
       <c r="A3" s="194" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D3" s="194"/>
       <c r="E3" s="64"/>
@@ -6006,37 +6007,37 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D4" s="54"/>
     </row>
     <row r="5">
       <c r="A5" s="89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D5" s="54"/>
     </row>
     <row r="6">
       <c r="A6" s="89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D6" s="54"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D7" s="54"/>
     </row>
@@ -6067,18 +6068,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="196" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="197" t="s">
+      <c r="A2" s="18" t="s">
         <v>368</v>
+      </c>
+      <c r="C2" s="196" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -6106,37 +6107,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
